--- a/00_기타/spring 설정.xlsx
+++ b/00_기타/spring 설정.xlsx
@@ -14,13 +14,393 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
   <si>
     <t xml:space="preserve">Srping 설정 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Spring directory structure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.version 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 라이브러리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- src &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="LG PC"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">pom.xml </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- src &gt; main &gt; webapp &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="LG PC"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">resources </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- java version 1.8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- spring version 4.3.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 프로젝트 우클릭 &gt; properties &gt; project Facets &gt; java 버전 1.8로 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- css , fonts, js 라이브러리 폴더 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3. tomcat </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 상단메뉴 : window &gt; preferences &gt; server &gt;  runtime environment &gt; add &gt; 톰캣 설치 경로 지정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 하단 servers tab에서 tomcat 서버 더블클릭 후 port 번호 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4. lombok </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 내 pc 기준 C:\sts-3.9.11.RELEASE 경로에 위치함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 설치파일 실행 후 spring 경로로 설정 해주면 됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. log4j</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="LG PC"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>src/main/resources</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- log 파일로 남기기 &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="LG PC"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>https://smujihoon.tistory.com/121</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- src &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="LG PC"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>pom.xml</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- pom.xml에 라이브러리 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;!-- log4j : 데이터베이스 작업과 관련된 로그를 기록/관리하는 기능 --&gt;</t>
+  </si>
+  <si>
+    <t>&lt;dependency&gt;</t>
+  </si>
+  <si>
+    <t>&lt;groupId&gt;org.lazyluke&lt;/groupId&gt;</t>
+  </si>
+  <si>
+    <t>&lt;artifactId&gt;log4jdbc-remix&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t>&lt;version&gt;0.2.7&lt;/version&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/dependency&gt;</t>
+  </si>
+  <si>
+    <t>- 다른 log4j와 달리 jdbc 관련 log4j는 라이브러리 필요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- src &gt; main &gt; webapp &gt; resoures &gt; WEB-INF &gt; spring &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="LG PC"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>root-context.xml</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- root-context.xml 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- DB log 추가 설명 &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="LG PC"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">https://sinna94.tistory.com/20 </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- log4j 구조</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="LG PC"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>logger</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="LG PC"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> : 출력할 메시지를 Appender에 전달</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="LG PC"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>appender</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="LG PC"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> : 전달된 로그를 어디에 출력할 지 결정 (콘솔 출력, 파일 기록, DB 저장 등)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="LG PC"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>layout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="LG PC"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> : 로그를 어떤 형식으로 출력할 지 결정</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1. SQL 쿼리문 관련 log</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- root-context 에 dataSource -&gt; realDataSource 로 변경 한 후 새로운 bean tag 추가(db연결 설정한 bean 참조하는 형태) 후 sqlSessionFactoryBean 사이에 bean 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;!-- MyBatis 설정 --&gt;</t>
+  </si>
+  <si>
+    <t>&lt;bean id="datasource"</t>
+  </si>
+  <si>
+    <t>class="org.apache.commons.dbcp.BasicDataSource"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;property name="driverClassName"</t>
+  </si>
+  <si>
+    <t>value="oracle.jdbc.driver.OracleDriver"&gt;&lt;/property&gt;</t>
+  </si>
+  <si>
+    <t>&lt;property name="url"</t>
+  </si>
+  <si>
+    <t>value="jdbc:oracle:thin:@localhost:1521:xe"&gt;&lt;/property&gt;</t>
+  </si>
+  <si>
+    <t>&lt;property name="username" value="toy"&gt;&lt;/property&gt;</t>
+  </si>
+  <si>
+    <t>&lt;property name="password" value="1234"&gt;&lt;/property&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/bean&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!-- log4j --&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!-- DB에도 log를 찍기위한 config --&gt;</t>
+  </si>
+  <si>
+    <t>&lt;bean id="log4j" class="net.sf.log4jdbc.Log4jdbcProxyDataSource"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;constructor-arg ref="datasource"&gt;&lt;/constructor-arg&gt;</t>
+  </si>
+  <si>
+    <t>&lt;property name="logFormatter"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;bean class="net.sf.log4jdbc.tools.Log4JdbcCustomFormatter"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;property name="loggingType" value="MULTI_LINE"&gt;&lt;/property&gt;</t>
+  </si>
+  <si>
+    <t>&lt;property name="sqlPrefix" value="[SQL]"&gt;&lt;/property&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/property&gt;</t>
+  </si>
+  <si>
+    <t>&lt;bean id="sessionfactory"</t>
+  </si>
+  <si>
+    <t>class="org.mybatis.spring.SqlSessionFactoryBean"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;property name="dataSource" ref="log4j"&gt;&lt;/property&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!-- SQL 파일위치 --&gt;</t>
+  </si>
+  <si>
+    <t>&lt;property name="mapperLocations" value="classpath*:com/project/**/mapper/*.xml"&gt;&lt;/property&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!-- mybatis 설정파일 --&gt;</t>
+  </si>
+  <si>
+    <t>&lt;property name="configLocation" value="/WEB-INF/mybatis.xml"&gt;&lt;/property&gt;</t>
+  </si>
+  <si>
+    <t>&lt;기존 DB 연결 bean&gt;</t>
+  </si>
+  <si>
+    <t>&lt;DB 연결 bean 참조하는 새로운 bean 생성&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;신규 생성한 bean 참조 property 생성&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -28,7 +408,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,8 +437,70 @@
       <family val="1"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="LG PC"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3" tint="-0.499984740745262"/>
+      <name val="LG PC"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="-0.499984740745262"/>
+      <name val="LG PC"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="LG PC"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="LG PC"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="LG PC"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="LG PC"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="LG PC"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -77,8 +519,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -86,17 +534,133 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -449,79 +1013,822 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Z79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="I6" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="3"/>
+    <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="J3" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K6" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J9" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J10" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K11" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J13" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J14" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J15" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J17" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J18" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J19" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J21" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J22" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J23" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J25" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J26" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J27" s="7"/>
+      <c r="K27" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="K28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+    </row>
+    <row r="29" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="K29" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="12"/>
+    </row>
+    <row r="30" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="K30" s="16"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="12"/>
+    </row>
+    <row r="31" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="K31" s="16"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="12"/>
+    </row>
+    <row r="32" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="K32" s="16"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="12"/>
+    </row>
+    <row r="33" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="K33" s="16"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="12"/>
+    </row>
+    <row r="34" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="K34" s="18"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="12"/>
+    </row>
+    <row r="35" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="L35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+    </row>
+    <row r="36" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J36" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="K37" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="K38" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="K39" s="4"/>
+      <c r="L39" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="K40" s="4"/>
+      <c r="L40" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="K41" s="4"/>
+      <c r="L41" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="K43" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="K44" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="K45" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="13"/>
+    </row>
+    <row r="46" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="K46" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="L46" s="24"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="11"/>
+    </row>
+    <row r="47" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="K47" s="22"/>
+      <c r="L47" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="11"/>
+    </row>
+    <row r="48" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="K48" s="22"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="11"/>
+    </row>
+    <row r="49" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K49" s="22"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="11"/>
+    </row>
+    <row r="50" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K50" s="22"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="11"/>
+    </row>
+    <row r="51" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K51" s="22"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="11"/>
+    </row>
+    <row r="52" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K52" s="22"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="11"/>
+    </row>
+    <row r="53" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K53" s="22"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="11"/>
+    </row>
+    <row r="54" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K54" s="22"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="11"/>
+    </row>
+    <row r="55" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K55" s="22"/>
+      <c r="L55" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="11"/>
+    </row>
+    <row r="56" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K56" s="22"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="11"/>
+    </row>
+    <row r="57" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K57" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="11"/>
+    </row>
+    <row r="58" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K58" s="22"/>
+      <c r="L58" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="8"/>
+      <c r="T58" s="8"/>
+      <c r="U58" s="11"/>
+    </row>
+    <row r="59" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K59" s="22"/>
+      <c r="L59" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="11"/>
+    </row>
+    <row r="60" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K60" s="22"/>
+      <c r="L60" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="11"/>
+    </row>
+    <row r="61" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K61" s="22"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="8"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="11"/>
+    </row>
+    <row r="62" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K62" s="22"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N62" s="8"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="8"/>
+      <c r="R62" s="8"/>
+      <c r="S62" s="8"/>
+      <c r="T62" s="8"/>
+      <c r="U62" s="11"/>
+    </row>
+    <row r="63" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K63" s="22"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8"/>
+      <c r="S63" s="8"/>
+      <c r="T63" s="8"/>
+      <c r="U63" s="11"/>
+    </row>
+    <row r="64" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K64" s="22"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="8"/>
+      <c r="R64" s="8"/>
+      <c r="S64" s="8"/>
+      <c r="T64" s="8"/>
+      <c r="U64" s="11"/>
+    </row>
+    <row r="65" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K65" s="22"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="11"/>
+    </row>
+    <row r="66" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K66" s="22"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="11"/>
+    </row>
+    <row r="67" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K67" s="22"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="N67" s="8"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="8"/>
+      <c r="R67" s="8"/>
+      <c r="S67" s="8"/>
+      <c r="T67" s="8"/>
+      <c r="U67" s="11"/>
+    </row>
+    <row r="68" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K68" s="22"/>
+      <c r="L68" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M68" s="8"/>
+      <c r="N68" s="8"/>
+      <c r="O68" s="8"/>
+      <c r="P68" s="8"/>
+      <c r="Q68" s="8"/>
+      <c r="R68" s="8"/>
+      <c r="S68" s="8"/>
+      <c r="T68" s="8"/>
+      <c r="U68" s="11"/>
+    </row>
+    <row r="69" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K69" s="22"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="8"/>
+      <c r="P69" s="8"/>
+      <c r="Q69" s="8"/>
+      <c r="R69" s="8"/>
+      <c r="S69" s="8"/>
+      <c r="T69" s="8"/>
+      <c r="U69" s="11"/>
+    </row>
+    <row r="70" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K70" s="22"/>
+      <c r="L70" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M70" s="8"/>
+      <c r="N70" s="8"/>
+      <c r="O70" s="8"/>
+      <c r="P70" s="8"/>
+      <c r="Q70" s="8"/>
+      <c r="R70" s="8"/>
+      <c r="S70" s="8"/>
+      <c r="T70" s="8"/>
+      <c r="U70" s="11"/>
+    </row>
+    <row r="71" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K71" s="22"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="8"/>
+      <c r="S71" s="8"/>
+      <c r="T71" s="8"/>
+      <c r="U71" s="11"/>
+    </row>
+    <row r="72" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K72" s="22"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="N72" s="8"/>
+      <c r="O72" s="8"/>
+      <c r="P72" s="8"/>
+      <c r="Q72" s="8"/>
+      <c r="R72" s="8"/>
+      <c r="S72" s="8"/>
+      <c r="T72" s="8"/>
+      <c r="U72" s="11"/>
+    </row>
+    <row r="73" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K73" s="22"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="N73" s="8"/>
+      <c r="O73" s="8"/>
+      <c r="P73" s="8"/>
+      <c r="Q73" s="8"/>
+      <c r="R73" s="8"/>
+      <c r="S73" s="8"/>
+      <c r="T73" s="8"/>
+      <c r="U73" s="11"/>
+    </row>
+    <row r="74" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K74" s="22"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="N74" s="8"/>
+      <c r="O74" s="8"/>
+      <c r="P74" s="8"/>
+      <c r="Q74" s="8"/>
+      <c r="R74" s="8"/>
+      <c r="S74" s="8"/>
+      <c r="T74" s="8"/>
+      <c r="U74" s="11"/>
+    </row>
+    <row r="75" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K75" s="22"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N75" s="8"/>
+      <c r="O75" s="8"/>
+      <c r="P75" s="8"/>
+      <c r="Q75" s="8"/>
+      <c r="R75" s="8"/>
+      <c r="S75" s="8"/>
+      <c r="T75" s="8"/>
+      <c r="U75" s="11"/>
+    </row>
+    <row r="76" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K76" s="22"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="N76" s="8"/>
+      <c r="O76" s="8"/>
+      <c r="P76" s="8"/>
+      <c r="Q76" s="8"/>
+      <c r="R76" s="8"/>
+      <c r="S76" s="8"/>
+      <c r="T76" s="8"/>
+      <c r="U76" s="11"/>
+    </row>
+    <row r="77" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K77" s="22"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="N77" s="8"/>
+      <c r="O77" s="8"/>
+      <c r="P77" s="8"/>
+      <c r="Q77" s="8"/>
+      <c r="R77" s="8"/>
+      <c r="S77" s="8"/>
+      <c r="T77" s="8"/>
+      <c r="U77" s="11"/>
+    </row>
+    <row r="78" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K78" s="23"/>
+      <c r="L78" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="15"/>
+      <c r="P78" s="15"/>
+      <c r="Q78" s="15"/>
+      <c r="R78" s="15"/>
+      <c r="S78" s="15"/>
+      <c r="T78" s="15"/>
+      <c r="U78" s="19"/>
+    </row>
+    <row r="79" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K79" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/00_기타/spring 설정.xlsx
+++ b/00_기타/spring 설정.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="113">
   <si>
     <t xml:space="preserve">Srping 설정 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -403,12 +403,212 @@
     <t>&lt;신규 생성한 bean 참조 property 생성&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve"> ConsoleAppender</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> org.apache.log4j.ConsoleAppender</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 콘솔에 로그 메시지 출력</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 파일에 로그 메시지 기록</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RollingFileAppender</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> org.apache.log4j.rolling.RollingFileAppender</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 파일 크기가 일정 수준 이상이 되면 기존 파일을 백업파일로 바꾸고 처음부터 기록</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DailyRollingFileAppender</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> org.apache.log4j.DailyRollingFileAppender</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 일정 기간  단위로 로그 파일을 생성하고 기록</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JDBCAppender</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> org.apache.log4j.jdbc.JDBCAppender</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DB에 로그를 출력. 하위에 Driver, URL, User, Password, Sql과 같은 parameter를 정의할 수 있음</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SMTPAppender</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 로그 메시지를 이메일로 전송</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NTEventAppender</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 윈도우 시스템 이벤트 로그로 메시지 전송</t>
+  </si>
+  <si>
+    <t>- 후에 log4j.xml에서 logFile에 기록할 appender 생성 후 logger 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;!-- log File에 기록 --&gt;</t>
+  </si>
+  <si>
+    <t>&lt;appender name="logFile" class="org.apache.log4j.DailyRollingFileAppende"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!-- log파일 생성 위치 --&gt;</t>
+  </si>
+  <si>
+    <t>&lt;param name="file" value="D:\Toy Project\Study_Project\logs\spring\spring.log" /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;param name="Append" value="true" /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;param name="DatePattern" value=".'yyyy-mm-dd" /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;layout class="org.apache.log4j.PatternLayout"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;param name="ConversionPattern" value="%d %p [%C{10}] %m [%X{userId}]%n" /&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;/layout&gt; </t>
+  </si>
+  <si>
+    <t>&lt;/appender&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!-- additivity 속성은 다른 logger에 영향을 줄 것인지 유무  --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;logger name="jdbc.sqlonly" additivity="false"&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;level value="info"/&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;appender-ref ref="logFile"/&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;/logger&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;logger name="jdbc.resultsettable" additivity="false"&gt; </t>
+  </si>
+  <si>
+    <t>&lt;appender-ref ref="logFile"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/logger&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="LG PC"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>log4j 주요 클래스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="LG PC"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="LG PC"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(참고: https://cofs.tistory.com/354)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> FileAppender</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> org.apache.log4j.FileAppender</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. Default Page 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- src &gt; main &gt; webapp &gt; WEB-INF &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="LG PC"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>web.xml</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- &lt;servlet-mapping&gt; 태그 &gt; &lt;url-pattern&gt; 태그 내용 '/' 으로 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. AOP 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. Tiles 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9. File upload 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10. DB 연결 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11. Transaction 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,6 +699,21 @@
       <family val="1"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="LG PC"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="LG PC"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -526,7 +741,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -627,17 +842,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -661,6 +953,18 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1013,10 +1317,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z79"/>
+  <dimension ref="A1:Z147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I6" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="H116" workbookViewId="0">
+      <selection activeCell="R124" sqref="R124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1025,337 +1329,315 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
     </row>
     <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="J8" s="5"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J22" s="4" t="s">
+      <c r="J22" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J23" s="4" t="s">
+      <c r="J23" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J24" s="4"/>
+      <c r="J24" s="3"/>
     </row>
     <row r="25" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J25" s="20" t="s">
+      <c r="J25" s="19" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J27" s="7"/>
-      <c r="K27" s="4" t="s">
+      <c r="J27" s="6"/>
+      <c r="K27" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="K28" s="4" t="s">
+      <c r="K28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
     </row>
     <row r="29" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="K29" s="17" t="s">
+      <c r="K29" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="12"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="11"/>
     </row>
     <row r="30" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="K30" s="16"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8" t="s">
+      <c r="K30" s="15"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="12"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="11"/>
     </row>
     <row r="31" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="K31" s="16"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8" t="s">
+      <c r="K31" s="15"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="12"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="11"/>
     </row>
     <row r="32" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="K32" s="16"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8" t="s">
+      <c r="K32" s="15"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="12"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="11"/>
     </row>
     <row r="33" spans="10:21" x14ac:dyDescent="0.2">
-      <c r="K33" s="16"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8" t="s">
+      <c r="K33" s="15"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="12"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="11"/>
     </row>
     <row r="34" spans="10:21" x14ac:dyDescent="0.2">
-      <c r="K34" s="18"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15" t="s">
+      <c r="K34" s="17"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="12"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="11"/>
     </row>
     <row r="35" spans="10:21" x14ac:dyDescent="0.2">
-      <c r="L35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
+      <c r="L35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
     </row>
     <row r="36" spans="10:21" x14ac:dyDescent="0.2">
-      <c r="J36" s="4" t="s">
+      <c r="J36" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="37" spans="10:21" x14ac:dyDescent="0.2">
-      <c r="K37" s="4" t="s">
+      <c r="K37" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="38" spans="10:21" x14ac:dyDescent="0.2">
-      <c r="K38" s="4" t="s">
+      <c r="K38" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="39" spans="10:21" x14ac:dyDescent="0.2">
-      <c r="K39" s="4"/>
-      <c r="L39" s="4" t="s">
+      <c r="K39" s="3"/>
+      <c r="L39" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="40" spans="10:21" x14ac:dyDescent="0.2">
-      <c r="K40" s="4"/>
-      <c r="L40" s="4" t="s">
+      <c r="K40" s="3"/>
+      <c r="L40" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="41" spans="10:21" x14ac:dyDescent="0.2">
-      <c r="K41" s="4"/>
-      <c r="L41" s="4" t="s">
+      <c r="K41" s="3"/>
+      <c r="L41" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="43" spans="10:21" x14ac:dyDescent="0.2">
-      <c r="K43" s="4" t="s">
+      <c r="K43" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="44" spans="10:21" x14ac:dyDescent="0.2">
-      <c r="K44" s="21" t="s">
+      <c r="K44" s="20" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="45" spans="10:21" x14ac:dyDescent="0.2">
-      <c r="K45" s="25" t="s">
+      <c r="K45" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="K46" s="20"/>
+    </row>
+    <row r="47" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="K47" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="9"/>
-      <c r="S45" s="9"/>
-      <c r="T45" s="9"/>
-      <c r="U45" s="13"/>
-    </row>
-    <row r="46" spans="10:21" x14ac:dyDescent="0.2">
-      <c r="K46" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="L46" s="24"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="8"/>
-      <c r="R46" s="8"/>
-      <c r="S46" s="8"/>
-      <c r="T46" s="8"/>
-      <c r="U46" s="11"/>
-    </row>
-    <row r="47" spans="10:21" x14ac:dyDescent="0.2">
-      <c r="K47" s="22"/>
-      <c r="L47" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="L47" s="8"/>
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
@@ -1364,471 +1646,981 @@
       <c r="R47" s="8"/>
       <c r="S47" s="8"/>
       <c r="T47" s="8"/>
-      <c r="U47" s="11"/>
+      <c r="U47" s="12"/>
     </row>
     <row r="48" spans="10:21" x14ac:dyDescent="0.2">
-      <c r="K48" s="22"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8" t="s">
+      <c r="K48" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="L48" s="23"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="10"/>
+    </row>
+    <row r="49" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K49" s="21"/>
+      <c r="L49" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="10"/>
+    </row>
+    <row r="50" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K50" s="21"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="8"/>
-      <c r="Q48" s="8"/>
-      <c r="R48" s="8"/>
-      <c r="S48" s="8"/>
-      <c r="T48" s="8"/>
-      <c r="U48" s="11"/>
-    </row>
-    <row r="49" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K49" s="22"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8" t="s">
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="10"/>
+    </row>
+    <row r="51" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K51" s="21"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="8"/>
-      <c r="R49" s="8"/>
-      <c r="S49" s="8"/>
-      <c r="T49" s="8"/>
-      <c r="U49" s="11"/>
-    </row>
-    <row r="50" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K50" s="22"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8" t="s">
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="10"/>
+    </row>
+    <row r="52" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K52" s="21"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="O50" s="8"/>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="8"/>
-      <c r="R50" s="8"/>
-      <c r="S50" s="8"/>
-      <c r="T50" s="8"/>
-      <c r="U50" s="11"/>
-    </row>
-    <row r="51" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K51" s="22"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8" t="s">
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="10"/>
+    </row>
+    <row r="53" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K53" s="21"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8"/>
-      <c r="R51" s="8"/>
-      <c r="S51" s="8"/>
-      <c r="T51" s="8"/>
-      <c r="U51" s="11"/>
-    </row>
-    <row r="52" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K52" s="22"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8" t="s">
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="10"/>
+    </row>
+    <row r="54" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K54" s="21"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="O52" s="8"/>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8"/>
-      <c r="R52" s="8"/>
-      <c r="S52" s="8"/>
-      <c r="T52" s="8"/>
-      <c r="U52" s="11"/>
-    </row>
-    <row r="53" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K53" s="22"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8" t="s">
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="10"/>
+    </row>
+    <row r="55" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K55" s="21"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
-      <c r="P53" s="8"/>
-      <c r="Q53" s="8"/>
-      <c r="R53" s="8"/>
-      <c r="S53" s="8"/>
-      <c r="T53" s="8"/>
-      <c r="U53" s="11"/>
-    </row>
-    <row r="54" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K54" s="22"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8" t="s">
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="10"/>
+    </row>
+    <row r="56" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K56" s="21"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="8"/>
-      <c r="Q54" s="8"/>
-      <c r="R54" s="8"/>
-      <c r="S54" s="8"/>
-      <c r="T54" s="8"/>
-      <c r="U54" s="11"/>
-    </row>
-    <row r="55" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K55" s="22"/>
-      <c r="L55" s="8" t="s">
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="10"/>
+    </row>
+    <row r="57" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K57" s="21"/>
+      <c r="L57" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8"/>
-      <c r="R55" s="8"/>
-      <c r="S55" s="8"/>
-      <c r="T55" s="8"/>
-      <c r="U55" s="11"/>
-    </row>
-    <row r="56" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K56" s="22"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8"/>
-      <c r="P56" s="8"/>
-      <c r="Q56" s="8"/>
-      <c r="R56" s="8"/>
-      <c r="S56" s="8"/>
-      <c r="T56" s="8"/>
-      <c r="U56" s="11"/>
-    </row>
-    <row r="57" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K57" s="26" t="s">
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="10"/>
+    </row>
+    <row r="58" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K58" s="21"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="7"/>
+      <c r="U58" s="10"/>
+    </row>
+    <row r="59" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K59" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="8"/>
-      <c r="R57" s="8"/>
-      <c r="S57" s="8"/>
-      <c r="T57" s="8"/>
-      <c r="U57" s="11"/>
-    </row>
-    <row r="58" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K58" s="22"/>
-      <c r="L58" s="8" t="s">
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
+      <c r="T59" s="7"/>
+      <c r="U59" s="10"/>
+    </row>
+    <row r="60" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K60" s="21"/>
+      <c r="L60" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M58" s="8"/>
-      <c r="N58" s="8"/>
-      <c r="O58" s="8"/>
-      <c r="P58" s="8"/>
-      <c r="Q58" s="8"/>
-      <c r="R58" s="8"/>
-      <c r="S58" s="8"/>
-      <c r="T58" s="8"/>
-      <c r="U58" s="11"/>
-    </row>
-    <row r="59" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K59" s="22"/>
-      <c r="L59" s="8" t="s">
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="7"/>
+      <c r="T60" s="7"/>
+      <c r="U60" s="10"/>
+    </row>
+    <row r="61" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K61" s="21"/>
+      <c r="L61" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8"/>
-      <c r="O59" s="8"/>
-      <c r="P59" s="8"/>
-      <c r="Q59" s="8"/>
-      <c r="R59" s="8"/>
-      <c r="S59" s="8"/>
-      <c r="T59" s="8"/>
-      <c r="U59" s="11"/>
-    </row>
-    <row r="60" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K60" s="22"/>
-      <c r="L60" s="8" t="s">
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7"/>
+      <c r="S61" s="7"/>
+      <c r="T61" s="7"/>
+      <c r="U61" s="10"/>
+    </row>
+    <row r="62" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K62" s="21"/>
+      <c r="L62" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
-      <c r="O60" s="8"/>
-      <c r="P60" s="8"/>
-      <c r="Q60" s="8"/>
-      <c r="R60" s="8"/>
-      <c r="S60" s="8"/>
-      <c r="T60" s="8"/>
-      <c r="U60" s="11"/>
-    </row>
-    <row r="61" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K61" s="22"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="8" t="s">
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="7"/>
+      <c r="T62" s="7"/>
+      <c r="U62" s="10"/>
+    </row>
+    <row r="63" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K63" s="21"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="N61" s="8"/>
-      <c r="O61" s="8"/>
-      <c r="P61" s="8"/>
-      <c r="Q61" s="8"/>
-      <c r="R61" s="8"/>
-      <c r="S61" s="8"/>
-      <c r="T61" s="8"/>
-      <c r="U61" s="11"/>
-    </row>
-    <row r="62" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K62" s="22"/>
-      <c r="L62" s="8"/>
-      <c r="M62" s="8" t="s">
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7"/>
+      <c r="S63" s="7"/>
+      <c r="T63" s="7"/>
+      <c r="U63" s="10"/>
+    </row>
+    <row r="64" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K64" s="21"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N62" s="8"/>
-      <c r="O62" s="8"/>
-      <c r="P62" s="8"/>
-      <c r="Q62" s="8"/>
-      <c r="R62" s="8"/>
-      <c r="S62" s="8"/>
-      <c r="T62" s="8"/>
-      <c r="U62" s="11"/>
-    </row>
-    <row r="63" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K63" s="22"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
-      <c r="N63" s="8" t="s">
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="7"/>
+      <c r="S64" s="7"/>
+      <c r="T64" s="7"/>
+      <c r="U64" s="10"/>
+    </row>
+    <row r="65" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K65" s="21"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="O63" s="8"/>
-      <c r="P63" s="8"/>
-      <c r="Q63" s="8"/>
-      <c r="R63" s="8"/>
-      <c r="S63" s="8"/>
-      <c r="T63" s="8"/>
-      <c r="U63" s="11"/>
-    </row>
-    <row r="64" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K64" s="22"/>
-      <c r="L64" s="8"/>
-      <c r="M64" s="8"/>
-      <c r="N64" s="8"/>
-      <c r="O64" s="8" t="s">
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7"/>
+      <c r="S65" s="7"/>
+      <c r="T65" s="7"/>
+      <c r="U65" s="10"/>
+    </row>
+    <row r="66" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K66" s="21"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="P64" s="8"/>
-      <c r="Q64" s="8"/>
-      <c r="R64" s="8"/>
-      <c r="S64" s="8"/>
-      <c r="T64" s="8"/>
-      <c r="U64" s="11"/>
-    </row>
-    <row r="65" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K65" s="22"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="8" t="s">
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="7"/>
+      <c r="S66" s="7"/>
+      <c r="T66" s="7"/>
+      <c r="U66" s="10"/>
+    </row>
+    <row r="67" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K67" s="21"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="P65" s="8"/>
-      <c r="Q65" s="8"/>
-      <c r="R65" s="8"/>
-      <c r="S65" s="8"/>
-      <c r="T65" s="8"/>
-      <c r="U65" s="11"/>
-    </row>
-    <row r="66" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K66" s="22"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8" t="s">
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7"/>
+      <c r="S67" s="7"/>
+      <c r="T67" s="7"/>
+      <c r="U67" s="10"/>
+    </row>
+    <row r="68" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K68" s="21"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="O66" s="8"/>
-      <c r="P66" s="8"/>
-      <c r="Q66" s="8"/>
-      <c r="R66" s="8"/>
-      <c r="S66" s="8"/>
-      <c r="T66" s="8"/>
-      <c r="U66" s="11"/>
-    </row>
-    <row r="67" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K67" s="22"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="8" t="s">
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="7"/>
+      <c r="S68" s="7"/>
+      <c r="T68" s="7"/>
+      <c r="U68" s="10"/>
+    </row>
+    <row r="69" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K69" s="21"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="N67" s="8"/>
-      <c r="O67" s="8"/>
-      <c r="P67" s="8"/>
-      <c r="Q67" s="8"/>
-      <c r="R67" s="8"/>
-      <c r="S67" s="8"/>
-      <c r="T67" s="8"/>
-      <c r="U67" s="11"/>
-    </row>
-    <row r="68" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K68" s="22"/>
-      <c r="L68" s="8" t="s">
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7"/>
+      <c r="S69" s="7"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="10"/>
+    </row>
+    <row r="70" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K70" s="21"/>
+      <c r="L70" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M68" s="8"/>
-      <c r="N68" s="8"/>
-      <c r="O68" s="8"/>
-      <c r="P68" s="8"/>
-      <c r="Q68" s="8"/>
-      <c r="R68" s="8"/>
-      <c r="S68" s="8"/>
-      <c r="T68" s="8"/>
-      <c r="U68" s="11"/>
-    </row>
-    <row r="69" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K69" s="22"/>
-      <c r="L69" s="8"/>
-      <c r="M69" s="8"/>
-      <c r="N69" s="8"/>
-      <c r="O69" s="8"/>
-      <c r="P69" s="8"/>
-      <c r="Q69" s="8"/>
-      <c r="R69" s="8"/>
-      <c r="S69" s="8"/>
-      <c r="T69" s="8"/>
-      <c r="U69" s="11"/>
-    </row>
-    <row r="70" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K70" s="22"/>
-      <c r="L70" s="8" t="s">
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="7"/>
+      <c r="R70" s="7"/>
+      <c r="S70" s="7"/>
+      <c r="T70" s="7"/>
+      <c r="U70" s="10"/>
+    </row>
+    <row r="71" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K71" s="21"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="7"/>
+      <c r="S71" s="7"/>
+      <c r="T71" s="7"/>
+      <c r="U71" s="10"/>
+    </row>
+    <row r="72" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K72" s="21"/>
+      <c r="L72" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M70" s="8"/>
-      <c r="N70" s="8"/>
-      <c r="O70" s="8"/>
-      <c r="P70" s="8"/>
-      <c r="Q70" s="8"/>
-      <c r="R70" s="8"/>
-      <c r="S70" s="8"/>
-      <c r="T70" s="8"/>
-      <c r="U70" s="11"/>
-    </row>
-    <row r="71" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K71" s="22"/>
-      <c r="L71" s="8"/>
-      <c r="M71" s="8" t="s">
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="7"/>
+      <c r="R72" s="7"/>
+      <c r="S72" s="7"/>
+      <c r="T72" s="7"/>
+      <c r="U72" s="10"/>
+    </row>
+    <row r="73" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K73" s="21"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="N71" s="8"/>
-      <c r="O71" s="8"/>
-      <c r="P71" s="8"/>
-      <c r="Q71" s="8"/>
-      <c r="R71" s="8"/>
-      <c r="S71" s="8"/>
-      <c r="T71" s="8"/>
-      <c r="U71" s="11"/>
-    </row>
-    <row r="72" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K72" s="22"/>
-      <c r="L72" s="8"/>
-      <c r="M72" s="24" t="s">
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7"/>
+      <c r="R73" s="7"/>
+      <c r="S73" s="7"/>
+      <c r="T73" s="7"/>
+      <c r="U73" s="10"/>
+    </row>
+    <row r="74" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K74" s="21"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="N72" s="8"/>
-      <c r="O72" s="8"/>
-      <c r="P72" s="8"/>
-      <c r="Q72" s="8"/>
-      <c r="R72" s="8"/>
-      <c r="S72" s="8"/>
-      <c r="T72" s="8"/>
-      <c r="U72" s="11"/>
-    </row>
-    <row r="73" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K73" s="22"/>
-      <c r="L73" s="8"/>
-      <c r="M73" s="8" t="s">
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="7"/>
+      <c r="R74" s="7"/>
+      <c r="S74" s="7"/>
+      <c r="T74" s="7"/>
+      <c r="U74" s="10"/>
+    </row>
+    <row r="75" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K75" s="21"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="N73" s="8"/>
-      <c r="O73" s="8"/>
-      <c r="P73" s="8"/>
-      <c r="Q73" s="8"/>
-      <c r="R73" s="8"/>
-      <c r="S73" s="8"/>
-      <c r="T73" s="8"/>
-      <c r="U73" s="11"/>
-    </row>
-    <row r="74" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K74" s="22"/>
-      <c r="L74" s="8"/>
-      <c r="M74" s="8" t="s">
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="7"/>
+      <c r="S75" s="7"/>
+      <c r="T75" s="7"/>
+      <c r="U75" s="10"/>
+    </row>
+    <row r="76" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K76" s="21"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="N74" s="8"/>
-      <c r="O74" s="8"/>
-      <c r="P74" s="8"/>
-      <c r="Q74" s="8"/>
-      <c r="R74" s="8"/>
-      <c r="S74" s="8"/>
-      <c r="T74" s="8"/>
-      <c r="U74" s="11"/>
-    </row>
-    <row r="75" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K75" s="22"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="8" t="s">
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="7"/>
+      <c r="Q76" s="7"/>
+      <c r="R76" s="7"/>
+      <c r="S76" s="7"/>
+      <c r="T76" s="7"/>
+      <c r="U76" s="10"/>
+    </row>
+    <row r="77" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K77" s="21"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="N75" s="8"/>
-      <c r="O75" s="8"/>
-      <c r="P75" s="8"/>
-      <c r="Q75" s="8"/>
-      <c r="R75" s="8"/>
-      <c r="S75" s="8"/>
-      <c r="T75" s="8"/>
-      <c r="U75" s="11"/>
-    </row>
-    <row r="76" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K76" s="22"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="8" t="s">
+      <c r="N77" s="7"/>
+      <c r="O77" s="7"/>
+      <c r="P77" s="7"/>
+      <c r="Q77" s="7"/>
+      <c r="R77" s="7"/>
+      <c r="S77" s="7"/>
+      <c r="T77" s="7"/>
+      <c r="U77" s="10"/>
+    </row>
+    <row r="78" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K78" s="21"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="N76" s="8"/>
-      <c r="O76" s="8"/>
-      <c r="P76" s="8"/>
-      <c r="Q76" s="8"/>
-      <c r="R76" s="8"/>
-      <c r="S76" s="8"/>
-      <c r="T76" s="8"/>
-      <c r="U76" s="11"/>
-    </row>
-    <row r="77" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K77" s="22"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="8" t="s">
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="7"/>
+      <c r="Q78" s="7"/>
+      <c r="R78" s="7"/>
+      <c r="S78" s="7"/>
+      <c r="T78" s="7"/>
+      <c r="U78" s="10"/>
+    </row>
+    <row r="79" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K79" s="21"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="N77" s="8"/>
-      <c r="O77" s="8"/>
-      <c r="P77" s="8"/>
-      <c r="Q77" s="8"/>
-      <c r="R77" s="8"/>
-      <c r="S77" s="8"/>
-      <c r="T77" s="8"/>
-      <c r="U77" s="11"/>
-    </row>
-    <row r="78" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K78" s="23"/>
-      <c r="L78" s="15" t="s">
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="7"/>
+      <c r="R79" s="7"/>
+      <c r="S79" s="7"/>
+      <c r="T79" s="7"/>
+      <c r="U79" s="10"/>
+    </row>
+    <row r="80" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K80" s="22"/>
+      <c r="L80" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="M78" s="15"/>
-      <c r="N78" s="15"/>
-      <c r="O78" s="15"/>
-      <c r="P78" s="15"/>
-      <c r="Q78" s="15"/>
-      <c r="R78" s="15"/>
-      <c r="S78" s="15"/>
-      <c r="T78" s="15"/>
-      <c r="U78" s="19"/>
-    </row>
-    <row r="79" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K79" s="4"/>
+      <c r="M80" s="14"/>
+      <c r="N80" s="14"/>
+      <c r="O80" s="14"/>
+      <c r="P80" s="14"/>
+      <c r="Q80" s="14"/>
+      <c r="R80" s="14"/>
+      <c r="S80" s="14"/>
+      <c r="T80" s="14"/>
+      <c r="U80" s="18"/>
+    </row>
+    <row r="81" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K81" s="3"/>
+    </row>
+    <row r="82" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K82" s="3"/>
+    </row>
+    <row r="83" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K83" s="28"/>
+      <c r="L83" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="M83" s="29"/>
+      <c r="N83" s="29"/>
+      <c r="O83" s="29"/>
+      <c r="P83" s="29"/>
+      <c r="Q83" s="29"/>
+      <c r="R83" s="29"/>
+      <c r="S83" s="29"/>
+      <c r="T83" s="29"/>
+      <c r="U83" s="30"/>
+    </row>
+    <row r="84" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K84" s="31"/>
+      <c r="L84" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="7"/>
+      <c r="P84" s="7"/>
+      <c r="Q84" s="7"/>
+      <c r="R84" s="7"/>
+      <c r="S84" s="7"/>
+      <c r="T84" s="7"/>
+      <c r="U84" s="32"/>
+    </row>
+    <row r="85" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K85" s="31"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="N85" s="7"/>
+      <c r="O85" s="7"/>
+      <c r="P85" s="7"/>
+      <c r="Q85" s="7"/>
+      <c r="R85" s="7"/>
+      <c r="S85" s="7"/>
+      <c r="T85" s="7"/>
+      <c r="U85" s="32"/>
+    </row>
+    <row r="86" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K86" s="31"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="N86" s="7"/>
+      <c r="O86" s="7"/>
+      <c r="P86" s="7"/>
+      <c r="Q86" s="7"/>
+      <c r="R86" s="7"/>
+      <c r="S86" s="7"/>
+      <c r="T86" s="7"/>
+      <c r="U86" s="32"/>
+    </row>
+    <row r="87" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K87" s="31"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="N87" s="7"/>
+      <c r="O87" s="7"/>
+      <c r="P87" s="7"/>
+      <c r="Q87" s="7"/>
+      <c r="R87" s="7"/>
+      <c r="S87" s="7"/>
+      <c r="T87" s="7"/>
+      <c r="U87" s="32"/>
+    </row>
+    <row r="88" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K88" s="31"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="N88" s="7"/>
+      <c r="O88" s="7"/>
+      <c r="P88" s="7"/>
+      <c r="Q88" s="7"/>
+      <c r="R88" s="7"/>
+      <c r="S88" s="7"/>
+      <c r="T88" s="7"/>
+      <c r="U88" s="32"/>
+    </row>
+    <row r="89" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K89" s="31"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="N89" s="7"/>
+      <c r="O89" s="7"/>
+      <c r="P89" s="7"/>
+      <c r="Q89" s="7"/>
+      <c r="R89" s="7"/>
+      <c r="S89" s="7"/>
+      <c r="T89" s="7"/>
+      <c r="U89" s="32"/>
+    </row>
+    <row r="90" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K90" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="7"/>
+      <c r="O90" s="7"/>
+      <c r="P90" s="7"/>
+      <c r="Q90" s="7"/>
+      <c r="R90" s="7"/>
+      <c r="S90" s="7"/>
+      <c r="T90" s="7"/>
+      <c r="U90" s="32"/>
+    </row>
+    <row r="91" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K91" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="L91" s="7"/>
+      <c r="M91" s="7"/>
+      <c r="N91" s="7"/>
+      <c r="O91" s="7"/>
+      <c r="P91" s="7"/>
+      <c r="Q91" s="7"/>
+      <c r="R91" s="7"/>
+      <c r="S91" s="7"/>
+      <c r="T91" s="7"/>
+      <c r="U91" s="32"/>
+    </row>
+    <row r="92" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K92" s="31"/>
+      <c r="L92" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M92" s="7"/>
+      <c r="N92" s="7"/>
+      <c r="O92" s="7"/>
+      <c r="P92" s="7"/>
+      <c r="Q92" s="7"/>
+      <c r="R92" s="7"/>
+      <c r="S92" s="7"/>
+      <c r="T92" s="7"/>
+      <c r="U92" s="32"/>
+    </row>
+    <row r="93" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K93" s="31"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="7"/>
+      <c r="O93" s="7"/>
+      <c r="P93" s="7"/>
+      <c r="Q93" s="7"/>
+      <c r="R93" s="7"/>
+      <c r="S93" s="7"/>
+      <c r="T93" s="7"/>
+      <c r="U93" s="32"/>
+    </row>
+    <row r="94" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K94" s="31"/>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="7"/>
+      <c r="O94" s="7"/>
+      <c r="P94" s="7"/>
+      <c r="Q94" s="7"/>
+      <c r="R94" s="7"/>
+      <c r="S94" s="7"/>
+      <c r="T94" s="7"/>
+      <c r="U94" s="32"/>
+    </row>
+    <row r="95" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K95" s="31"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="7"/>
+      <c r="O95" s="7"/>
+      <c r="P95" s="7"/>
+      <c r="Q95" s="7"/>
+      <c r="R95" s="7"/>
+      <c r="S95" s="7"/>
+      <c r="T95" s="7"/>
+      <c r="U95" s="32"/>
+    </row>
+    <row r="96" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K96" s="31"/>
+      <c r="L96" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M96" s="7"/>
+      <c r="N96" s="7"/>
+      <c r="O96" s="7"/>
+      <c r="P96" s="7"/>
+      <c r="Q96" s="7"/>
+      <c r="R96" s="7"/>
+      <c r="S96" s="7"/>
+      <c r="T96" s="7"/>
+      <c r="U96" s="32"/>
+    </row>
+    <row r="97" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K97" s="31"/>
+      <c r="L97" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M97" s="7"/>
+      <c r="N97" s="7"/>
+      <c r="O97" s="7"/>
+      <c r="P97" s="7"/>
+      <c r="Q97" s="7"/>
+      <c r="R97" s="7"/>
+      <c r="S97" s="7"/>
+      <c r="T97" s="7"/>
+      <c r="U97" s="32"/>
+    </row>
+    <row r="98" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K98" s="31"/>
+      <c r="L98" s="7"/>
+      <c r="M98" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="N98" s="7"/>
+      <c r="O98" s="7"/>
+      <c r="P98" s="7"/>
+      <c r="Q98" s="7"/>
+      <c r="R98" s="7"/>
+      <c r="S98" s="7"/>
+      <c r="T98" s="7"/>
+      <c r="U98" s="32"/>
+    </row>
+    <row r="99" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K99" s="31"/>
+      <c r="L99" s="7"/>
+      <c r="M99" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="N99" s="7"/>
+      <c r="O99" s="7"/>
+      <c r="P99" s="7"/>
+      <c r="Q99" s="7"/>
+      <c r="R99" s="7"/>
+      <c r="S99" s="7"/>
+      <c r="T99" s="7"/>
+      <c r="U99" s="32"/>
+    </row>
+    <row r="100" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K100" s="31"/>
+      <c r="L100" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M100" s="7"/>
+      <c r="N100" s="7"/>
+      <c r="O100" s="7"/>
+      <c r="P100" s="7"/>
+      <c r="Q100" s="7"/>
+      <c r="R100" s="7"/>
+      <c r="S100" s="7"/>
+      <c r="T100" s="7"/>
+      <c r="U100" s="32"/>
+    </row>
+    <row r="101" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K101" s="31"/>
+      <c r="L101" s="7"/>
+      <c r="M101" s="7"/>
+      <c r="N101" s="7"/>
+      <c r="O101" s="7"/>
+      <c r="P101" s="7"/>
+      <c r="Q101" s="7"/>
+      <c r="R101" s="7"/>
+      <c r="S101" s="7"/>
+      <c r="T101" s="7"/>
+      <c r="U101" s="32"/>
+    </row>
+    <row r="102" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K102" s="31"/>
+      <c r="L102" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M102" s="7"/>
+      <c r="N102" s="7"/>
+      <c r="O102" s="7"/>
+      <c r="P102" s="7"/>
+      <c r="Q102" s="7"/>
+      <c r="R102" s="7"/>
+      <c r="S102" s="7"/>
+      <c r="T102" s="7"/>
+      <c r="U102" s="32"/>
+    </row>
+    <row r="103" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K103" s="31"/>
+      <c r="L103" s="7"/>
+      <c r="M103" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="N103" s="7"/>
+      <c r="O103" s="7"/>
+      <c r="P103" s="7"/>
+      <c r="Q103" s="7"/>
+      <c r="R103" s="7"/>
+      <c r="S103" s="7"/>
+      <c r="T103" s="7"/>
+      <c r="U103" s="32"/>
+    </row>
+    <row r="104" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K104" s="31"/>
+      <c r="L104" s="7"/>
+      <c r="M104" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="N104" s="7"/>
+      <c r="O104" s="7"/>
+      <c r="P104" s="7"/>
+      <c r="Q104" s="7"/>
+      <c r="R104" s="7"/>
+      <c r="S104" s="7"/>
+      <c r="T104" s="7"/>
+      <c r="U104" s="32"/>
+    </row>
+    <row r="105" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K105" s="33"/>
+      <c r="L105" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="M105" s="34"/>
+      <c r="N105" s="34"/>
+      <c r="O105" s="34"/>
+      <c r="P105" s="34"/>
+      <c r="Q105" s="34"/>
+      <c r="R105" s="34"/>
+      <c r="S105" s="34"/>
+      <c r="T105" s="34"/>
+      <c r="U105" s="35"/>
+    </row>
+    <row r="107" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K107" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K108" s="27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="109" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K109" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="110" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K110" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="112" spans="11:21" x14ac:dyDescent="0.2">
+      <c r="K112" s="27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="113" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K113" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="114" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K114" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="116" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K116" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="117" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K117" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="118" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K118" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="120" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K120" s="27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="121" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K121" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="122" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K122" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="124" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K124" s="27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="125" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K125" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="126" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K126" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="128" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K128" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="129" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="K129" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="131" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="K131" s="27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="132" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="K132" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="135" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J135" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="136" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J136" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="137" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J137" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="139" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J139" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="141" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J141" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="143" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J143" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="145" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J145" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="147" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J147" s="2" t="s">
+        <v>112</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/00_기타/spring 설정.xlsx
+++ b/00_기타/spring 설정.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="183">
   <si>
     <t xml:space="preserve">Srping 설정 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -592,15 +592,279 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>9. File upload 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10. DB 연결 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11. Transaction 설정</t>
+    <t>- properties 태그 내에 &lt;org.aspectj-version&gt;버전&lt;/org.aspectj-version&gt;  추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- dependency 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;!-- AspectJ --&gt;</t>
+  </si>
+  <si>
+    <t>&lt;groupId&gt;org.aspectj&lt;/groupId&gt;</t>
+  </si>
+  <si>
+    <t>&lt;artifactId&gt;aspectjrt&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t>&lt;version&gt;${org.aspectj-version}&lt;/version&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;groupId&gt;org.aspectj&lt;/groupId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;artifactId&gt;aspectjweaver&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;version&gt;${org.aspectj-version}&lt;/version&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;artifactId&gt;aspectjtools&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!-- Tiles --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;dependency&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;groupId&gt;org.apache.tiles&lt;/groupId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;artifactId&gt;tiles-servlet&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;version&gt;2.2.2&lt;/version&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;/dependency&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         &lt;dependency&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;artifactId&gt;tiles-api&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;artifactId&gt;tiles-jsp&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;artifactId&gt;tiles-core&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;/dependency&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;artifactId&gt;tiles-template&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- src &gt; webapp &gt; resuources &gt; WEB-INF &gt; spring &gt; appServlet &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="LG PC"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>servlet-context.xml</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- src &gt; webapp &gt; resuources &gt; WEB-INF &gt; spring &gt; appServlet &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="LG PC"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>servlet-context.xml</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- servlet-context.xml 파일에 tiles 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;!-- Tiles ViewResolver --&gt;</t>
+  </si>
+  <si>
+    <t>&lt;beans:bean class="org.springframework.web.servlet.view.tiles2.TilesConfigurer"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;beans:property name="definitions" value="/WEB-INF/tiles.xml"&gt;&lt;/beans:property&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/beans:bean&gt;</t>
+  </si>
+  <si>
+    <t>&lt;beans:bean class="org.springframework.web.servlet.view.UrlBasedViewResolver"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;beans:property name="viewClass" value="org.springframework.web.servlet.view.tiles2.TilesView"&gt;&lt;/beans:property&gt;</t>
+  </si>
+  <si>
+    <t>- WEB-INF/viesw에 tiles 폴더 생성하여 tiles로 사용할 jsp 파일들 생성 후 tiles.xml에 작성하여 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9. Transaction 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- src &gt; webapp &gt; resuources &gt; WEB-INF &gt; spring &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="LG PC"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>root-context.xml</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;!-- 트랜잭션 매니저 bean 을 등록합니다. --&gt;</t>
+  </si>
+  <si>
+    <t>&lt;bean id="transactionManager" class="org.springframework.jdbc.datasource.DataSourceTransactionManager"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tx:annotation-driven/&gt;</t>
+  </si>
+  <si>
+    <t>- root-context.xml 에 transaction bean 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- namespaces 탭 &gt; tx 체크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10. File upload 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11. DB 연결 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- File Upload dependency 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;!-- Spring File Upload --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;dependency&gt;</t>
+  </si>
+  <si>
+    <t>&lt;groupId&gt;commons-io&lt;/groupId&gt;</t>
+  </si>
+  <si>
+    <t>&lt;artifactId&gt;commons-io&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t>&lt;version&gt;2.0.1&lt;/version&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;/dependency&gt; </t>
+  </si>
+  <si>
+    <t>&lt;groupId&gt;commons-fileupload&lt;/groupId&gt;</t>
+  </si>
+  <si>
+    <t>&lt;artifactId&gt;commons-fileupload&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t>&lt;version&gt;1.2.2&lt;/version&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!-- 파일 업로드 --&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!-- 들어오는 데이터를 처리해주는 multipartResolver 빈을 생성해주는 부분 --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   &lt;beans:bean id="multipartResolver"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        class="org.springframework.web.multipart.commons.CommonsMultipartResolver"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;beans:property name="maxUploadSize" value="31457280" /&gt; &lt;!--약 10mb 제한 --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;beans:property name="defaultEncoding" value="utf-8" /&gt;    &lt;!-- 인코딩 --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;/beans:bean&gt;</t>
+  </si>
+  <si>
+    <t>- servlet-context.xml에 bean 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>참고 : https://rumor1993.tistory.com/42</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- ojdbc jar파일 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;groupId&gt;org.mybatis&lt;/groupId&gt;</t>
+  </si>
+  <si>
+    <t>&lt;artifactId&gt;mybatis&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t>&lt;version&gt;3.2.8&lt;/version&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!-- Mybatis와 Spring 연결 --&gt;</t>
+  </si>
+  <si>
+    <t>&lt;artifactId&gt;mybatis-spring&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            </t>
+  </si>
+  <si>
+    <t>&lt;groupId&gt;org.springframework&lt;/groupId&gt;</t>
+  </si>
+  <si>
+    <t>&lt;artifactId&gt;spring-jdbc&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t>&lt;version&gt;${org.springframework-version}&lt;/version&gt;</t>
+  </si>
+  <si>
+    <t>- pom.xml에 dependency 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- JUnit TEST 성공!</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -926,7 +1190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -953,9 +1217,6 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -965,6 +1226,14 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1023,6 +1292,44 @@
             <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>418619</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>85511</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="49587150"/>
+          <a:ext cx="3847619" cy="1714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1317,10 +1624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z147"/>
+  <dimension ref="A1:Z274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H116" workbookViewId="0">
-      <selection activeCell="R124" sqref="R124"/>
+    <sheetView tabSelected="1" topLeftCell="H245" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K274" sqref="K274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1329,62 +1636,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
     </row>
     <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -2146,22 +2453,22 @@
       <c r="K82" s="3"/>
     </row>
     <row r="83" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K83" s="28"/>
-      <c r="L83" s="29" t="s">
+      <c r="K83" s="27"/>
+      <c r="L83" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="M83" s="29"/>
-      <c r="N83" s="29"/>
-      <c r="O83" s="29"/>
-      <c r="P83" s="29"/>
-      <c r="Q83" s="29"/>
-      <c r="R83" s="29"/>
-      <c r="S83" s="29"/>
-      <c r="T83" s="29"/>
-      <c r="U83" s="30"/>
+      <c r="M83" s="28"/>
+      <c r="N83" s="28"/>
+      <c r="O83" s="28"/>
+      <c r="P83" s="28"/>
+      <c r="Q83" s="28"/>
+      <c r="R83" s="28"/>
+      <c r="S83" s="28"/>
+      <c r="T83" s="28"/>
+      <c r="U83" s="29"/>
     </row>
     <row r="84" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K84" s="31"/>
+      <c r="K84" s="30"/>
       <c r="L84" s="7" t="s">
         <v>85</v>
       </c>
@@ -2173,10 +2480,10 @@
       <c r="R84" s="7"/>
       <c r="S84" s="7"/>
       <c r="T84" s="7"/>
-      <c r="U84" s="32"/>
+      <c r="U84" s="31"/>
     </row>
     <row r="85" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K85" s="31"/>
+      <c r="K85" s="30"/>
       <c r="L85" s="7"/>
       <c r="M85" s="7" t="s">
         <v>86</v>
@@ -2188,10 +2495,10 @@
       <c r="R85" s="7"/>
       <c r="S85" s="7"/>
       <c r="T85" s="7"/>
-      <c r="U85" s="32"/>
+      <c r="U85" s="31"/>
     </row>
     <row r="86" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K86" s="31"/>
+      <c r="K86" s="30"/>
       <c r="L86" s="7"/>
       <c r="M86" s="7" t="s">
         <v>87</v>
@@ -2203,10 +2510,10 @@
       <c r="R86" s="7"/>
       <c r="S86" s="7"/>
       <c r="T86" s="7"/>
-      <c r="U86" s="32"/>
+      <c r="U86" s="31"/>
     </row>
     <row r="87" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K87" s="31"/>
+      <c r="K87" s="30"/>
       <c r="L87" s="7"/>
       <c r="M87" s="7" t="s">
         <v>88</v>
@@ -2218,10 +2525,10 @@
       <c r="R87" s="7"/>
       <c r="S87" s="7"/>
       <c r="T87" s="7"/>
-      <c r="U87" s="32"/>
+      <c r="U87" s="31"/>
     </row>
     <row r="88" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K88" s="31"/>
+      <c r="K88" s="30"/>
       <c r="L88" s="7"/>
       <c r="M88" s="7" t="s">
         <v>89</v>
@@ -2233,10 +2540,10 @@
       <c r="R88" s="7"/>
       <c r="S88" s="7"/>
       <c r="T88" s="7"/>
-      <c r="U88" s="32"/>
+      <c r="U88" s="31"/>
     </row>
     <row r="89" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K89" s="31"/>
+      <c r="K89" s="30"/>
       <c r="L89" s="7"/>
       <c r="M89" s="7" t="s">
         <v>90</v>
@@ -2248,10 +2555,10 @@
       <c r="R89" s="7"/>
       <c r="S89" s="7"/>
       <c r="T89" s="7"/>
-      <c r="U89" s="32"/>
+      <c r="U89" s="31"/>
     </row>
     <row r="90" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K90" s="31" t="s">
+      <c r="K90" s="30" t="s">
         <v>91</v>
       </c>
       <c r="L90" s="7"/>
@@ -2263,10 +2570,10 @@
       <c r="R90" s="7"/>
       <c r="S90" s="7"/>
       <c r="T90" s="7"/>
-      <c r="U90" s="32"/>
+      <c r="U90" s="31"/>
     </row>
     <row r="91" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K91" s="31" t="s">
+      <c r="K91" s="30" t="s">
         <v>92</v>
       </c>
       <c r="L91" s="7"/>
@@ -2278,10 +2585,10 @@
       <c r="R91" s="7"/>
       <c r="S91" s="7"/>
       <c r="T91" s="7"/>
-      <c r="U91" s="32"/>
+      <c r="U91" s="31"/>
     </row>
     <row r="92" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K92" s="31"/>
+      <c r="K92" s="30"/>
       <c r="L92" s="7" t="s">
         <v>93</v>
       </c>
@@ -2293,10 +2600,10 @@
       <c r="R92" s="7"/>
       <c r="S92" s="7"/>
       <c r="T92" s="7"/>
-      <c r="U92" s="32"/>
+      <c r="U92" s="31"/>
     </row>
     <row r="93" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K93" s="31"/>
+      <c r="K93" s="30"/>
       <c r="L93" s="7"/>
       <c r="M93" s="7"/>
       <c r="N93" s="7"/>
@@ -2306,10 +2613,10 @@
       <c r="R93" s="7"/>
       <c r="S93" s="7"/>
       <c r="T93" s="7"/>
-      <c r="U93" s="32"/>
+      <c r="U93" s="31"/>
     </row>
     <row r="94" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K94" s="31"/>
+      <c r="K94" s="30"/>
       <c r="L94" s="7"/>
       <c r="M94" s="7"/>
       <c r="N94" s="7"/>
@@ -2319,10 +2626,10 @@
       <c r="R94" s="7"/>
       <c r="S94" s="7"/>
       <c r="T94" s="7"/>
-      <c r="U94" s="32"/>
+      <c r="U94" s="31"/>
     </row>
     <row r="95" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K95" s="31"/>
+      <c r="K95" s="30"/>
       <c r="L95" s="7"/>
       <c r="M95" s="7"/>
       <c r="N95" s="7"/>
@@ -2332,10 +2639,10 @@
       <c r="R95" s="7"/>
       <c r="S95" s="7"/>
       <c r="T95" s="7"/>
-      <c r="U95" s="32"/>
+      <c r="U95" s="31"/>
     </row>
     <row r="96" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K96" s="31"/>
+      <c r="K96" s="30"/>
       <c r="L96" s="7" t="s">
         <v>94</v>
       </c>
@@ -2347,10 +2654,10 @@
       <c r="R96" s="7"/>
       <c r="S96" s="7"/>
       <c r="T96" s="7"/>
-      <c r="U96" s="32"/>
+      <c r="U96" s="31"/>
     </row>
     <row r="97" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K97" s="31"/>
+      <c r="K97" s="30"/>
       <c r="L97" s="7" t="s">
         <v>95</v>
       </c>
@@ -2362,10 +2669,10 @@
       <c r="R97" s="7"/>
       <c r="S97" s="7"/>
       <c r="T97" s="7"/>
-      <c r="U97" s="32"/>
+      <c r="U97" s="31"/>
     </row>
     <row r="98" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K98" s="31"/>
+      <c r="K98" s="30"/>
       <c r="L98" s="7"/>
       <c r="M98" s="7" t="s">
         <v>96</v>
@@ -2377,10 +2684,10 @@
       <c r="R98" s="7"/>
       <c r="S98" s="7"/>
       <c r="T98" s="7"/>
-      <c r="U98" s="32"/>
+      <c r="U98" s="31"/>
     </row>
     <row r="99" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K99" s="31"/>
+      <c r="K99" s="30"/>
       <c r="L99" s="7"/>
       <c r="M99" s="7" t="s">
         <v>97</v>
@@ -2392,10 +2699,10 @@
       <c r="R99" s="7"/>
       <c r="S99" s="7"/>
       <c r="T99" s="7"/>
-      <c r="U99" s="32"/>
+      <c r="U99" s="31"/>
     </row>
     <row r="100" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K100" s="31"/>
+      <c r="K100" s="30"/>
       <c r="L100" s="7" t="s">
         <v>98</v>
       </c>
@@ -2407,10 +2714,10 @@
       <c r="R100" s="7"/>
       <c r="S100" s="7"/>
       <c r="T100" s="7"/>
-      <c r="U100" s="32"/>
+      <c r="U100" s="31"/>
     </row>
     <row r="101" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K101" s="31"/>
+      <c r="K101" s="30"/>
       <c r="L101" s="7"/>
       <c r="M101" s="7"/>
       <c r="N101" s="7"/>
@@ -2420,10 +2727,10 @@
       <c r="R101" s="7"/>
       <c r="S101" s="7"/>
       <c r="T101" s="7"/>
-      <c r="U101" s="32"/>
+      <c r="U101" s="31"/>
     </row>
     <row r="102" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K102" s="31"/>
+      <c r="K102" s="30"/>
       <c r="L102" s="7" t="s">
         <v>99</v>
       </c>
@@ -2435,10 +2742,10 @@
       <c r="R102" s="7"/>
       <c r="S102" s="7"/>
       <c r="T102" s="7"/>
-      <c r="U102" s="32"/>
+      <c r="U102" s="31"/>
     </row>
     <row r="103" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K103" s="31"/>
+      <c r="K103" s="30"/>
       <c r="L103" s="7"/>
       <c r="M103" s="7" t="s">
         <v>96</v>
@@ -2450,10 +2757,10 @@
       <c r="R103" s="7"/>
       <c r="S103" s="7"/>
       <c r="T103" s="7"/>
-      <c r="U103" s="32"/>
+      <c r="U103" s="31"/>
     </row>
     <row r="104" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K104" s="31"/>
+      <c r="K104" s="30"/>
       <c r="L104" s="7"/>
       <c r="M104" s="7" t="s">
         <v>100</v>
@@ -2465,22 +2772,22 @@
       <c r="R104" s="7"/>
       <c r="S104" s="7"/>
       <c r="T104" s="7"/>
-      <c r="U104" s="32"/>
+      <c r="U104" s="31"/>
     </row>
     <row r="105" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K105" s="33"/>
-      <c r="L105" s="34" t="s">
+      <c r="K105" s="32"/>
+      <c r="L105" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="M105" s="34"/>
-      <c r="N105" s="34"/>
-      <c r="O105" s="34"/>
-      <c r="P105" s="34"/>
-      <c r="Q105" s="34"/>
-      <c r="R105" s="34"/>
-      <c r="S105" s="34"/>
-      <c r="T105" s="34"/>
-      <c r="U105" s="35"/>
+      <c r="M105" s="33"/>
+      <c r="N105" s="33"/>
+      <c r="O105" s="33"/>
+      <c r="P105" s="33"/>
+      <c r="Q105" s="33"/>
+      <c r="R105" s="33"/>
+      <c r="S105" s="33"/>
+      <c r="T105" s="33"/>
+      <c r="U105" s="34"/>
     </row>
     <row r="107" spans="11:21" x14ac:dyDescent="0.2">
       <c r="K107" s="3" t="s">
@@ -2488,7 +2795,7 @@
       </c>
     </row>
     <row r="108" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K108" s="27" t="s">
+      <c r="K108" s="26" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2503,7 +2810,7 @@
       </c>
     </row>
     <row r="112" spans="11:21" x14ac:dyDescent="0.2">
-      <c r="K112" s="27" t="s">
+      <c r="K112" s="26" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2518,7 +2825,7 @@
       </c>
     </row>
     <row r="116" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K116" s="27" t="s">
+      <c r="K116" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2533,7 +2840,7 @@
       </c>
     </row>
     <row r="120" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K120" s="27" t="s">
+      <c r="K120" s="26" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2548,7 +2855,7 @@
       </c>
     </row>
     <row r="124" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K124" s="27" t="s">
+      <c r="K124" s="26" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2563,63 +2870,1297 @@
       </c>
     </row>
     <row r="128" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K128" s="27" t="s">
+      <c r="K128" s="26" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="129" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="10:17" x14ac:dyDescent="0.2">
       <c r="K129" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="131" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="K131" s="27" t="s">
+    <row r="131" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K131" s="26" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="132" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="10:17" x14ac:dyDescent="0.2">
       <c r="K132" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="135" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J135" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="136" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J136" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="137" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J137" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="139" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J139" s="2" t="s">
+    <row r="139" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J139" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="141" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J141" s="2" t="s">
+    <row r="140" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J140" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="141" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K141" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="142" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K142" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="143" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K143" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="L143" s="28"/>
+      <c r="M143" s="28"/>
+      <c r="N143" s="28"/>
+      <c r="O143" s="28"/>
+      <c r="P143" s="28"/>
+      <c r="Q143" s="29"/>
+    </row>
+    <row r="144" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K144" s="30"/>
+      <c r="L144" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M144" s="7"/>
+      <c r="N144" s="7"/>
+      <c r="O144" s="7"/>
+      <c r="P144" s="7"/>
+      <c r="Q144" s="31"/>
+    </row>
+    <row r="145" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K145" s="30"/>
+      <c r="L145" s="7"/>
+      <c r="M145" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="N145" s="7"/>
+      <c r="O145" s="7"/>
+      <c r="P145" s="7"/>
+      <c r="Q145" s="31"/>
+    </row>
+    <row r="146" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K146" s="30"/>
+      <c r="L146" s="7"/>
+      <c r="M146" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="N146" s="7"/>
+      <c r="O146" s="7"/>
+      <c r="P146" s="7"/>
+      <c r="Q146" s="31"/>
+    </row>
+    <row r="147" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K147" s="30"/>
+      <c r="L147" s="7"/>
+      <c r="M147" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="N147" s="7"/>
+      <c r="O147" s="7"/>
+      <c r="P147" s="7"/>
+      <c r="Q147" s="31"/>
+    </row>
+    <row r="148" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K148" s="30"/>
+      <c r="L148" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M148" s="7"/>
+      <c r="N148" s="7"/>
+      <c r="O148" s="7"/>
+      <c r="P148" s="7"/>
+      <c r="Q148" s="31"/>
+    </row>
+    <row r="149" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K149" s="30"/>
+      <c r="L149" s="7"/>
+      <c r="M149" s="7"/>
+      <c r="N149" s="7"/>
+      <c r="O149" s="7"/>
+      <c r="P149" s="7"/>
+      <c r="Q149" s="31"/>
+    </row>
+    <row r="150" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K150" s="36"/>
+      <c r="L150" s="7"/>
+      <c r="M150" s="7"/>
+      <c r="N150" s="7"/>
+      <c r="O150" s="7"/>
+      <c r="P150" s="7"/>
+      <c r="Q150" s="31"/>
+    </row>
+    <row r="151" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K151" s="36"/>
+      <c r="L151" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M151" s="7"/>
+      <c r="N151" s="7"/>
+      <c r="O151" s="7"/>
+      <c r="P151" s="7"/>
+      <c r="Q151" s="31"/>
+    </row>
+    <row r="152" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K152" s="36"/>
+      <c r="L152" s="7"/>
+      <c r="M152" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="N152" s="7"/>
+      <c r="O152" s="7"/>
+      <c r="P152" s="7"/>
+      <c r="Q152" s="31"/>
+    </row>
+    <row r="153" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K153" s="36"/>
+      <c r="L153" s="7"/>
+      <c r="M153" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N153" s="7"/>
+      <c r="O153" s="7"/>
+      <c r="P153" s="7"/>
+      <c r="Q153" s="31"/>
+    </row>
+    <row r="154" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K154" s="36"/>
+      <c r="L154" s="7"/>
+      <c r="M154" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="N154" s="7"/>
+      <c r="O154" s="7"/>
+      <c r="P154" s="7"/>
+      <c r="Q154" s="31"/>
+    </row>
+    <row r="155" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K155" s="36"/>
+      <c r="L155" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M155" s="7"/>
+      <c r="N155" s="7"/>
+      <c r="O155" s="7"/>
+      <c r="P155" s="7"/>
+      <c r="Q155" s="31"/>
+    </row>
+    <row r="156" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K156" s="36"/>
+      <c r="L156" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M156" s="7"/>
+      <c r="N156" s="7"/>
+      <c r="O156" s="7"/>
+      <c r="P156" s="7"/>
+      <c r="Q156" s="31"/>
+    </row>
+    <row r="157" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K157" s="36"/>
+      <c r="L157" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M157" s="7"/>
+      <c r="N157" s="7"/>
+      <c r="O157" s="7"/>
+      <c r="P157" s="7"/>
+      <c r="Q157" s="31"/>
+    </row>
+    <row r="158" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K158" s="36"/>
+      <c r="L158" s="7"/>
+      <c r="M158" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="N158" s="7"/>
+      <c r="O158" s="7"/>
+      <c r="P158" s="7"/>
+      <c r="Q158" s="31"/>
+    </row>
+    <row r="159" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K159" s="36"/>
+      <c r="L159" s="7"/>
+      <c r="M159" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="N159" s="7"/>
+      <c r="O159" s="7"/>
+      <c r="P159" s="7"/>
+      <c r="Q159" s="31"/>
+    </row>
+    <row r="160" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K160" s="36"/>
+      <c r="L160" s="7"/>
+      <c r="M160" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="N160" s="7"/>
+      <c r="O160" s="7"/>
+      <c r="P160" s="7"/>
+      <c r="Q160" s="31"/>
+    </row>
+    <row r="161" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K161" s="37"/>
+      <c r="L161" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M161" s="33"/>
+      <c r="N161" s="33"/>
+      <c r="O161" s="33"/>
+      <c r="P161" s="33"/>
+      <c r="Q161" s="34"/>
+    </row>
+    <row r="164" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J164" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="143" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J143" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="145" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J145" s="2" t="s">
+    <row r="165" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J165" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="166" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K166" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="147" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J147" s="2" t="s">
-        <v>112</v>
+    <row r="167" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K167" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="L167" s="28"/>
+      <c r="M167" s="28"/>
+      <c r="N167" s="28"/>
+      <c r="O167" s="28"/>
+      <c r="P167" s="29"/>
+    </row>
+    <row r="168" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K168" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="L168" s="7"/>
+      <c r="M168" s="7"/>
+      <c r="N168" s="7"/>
+      <c r="O168" s="7"/>
+      <c r="P168" s="31"/>
+    </row>
+    <row r="169" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K169" s="36"/>
+      <c r="L169" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="M169" s="7"/>
+      <c r="N169" s="7"/>
+      <c r="O169" s="7"/>
+      <c r="P169" s="31"/>
+    </row>
+    <row r="170" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K170" s="36"/>
+      <c r="L170" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="M170" s="7"/>
+      <c r="N170" s="7"/>
+      <c r="O170" s="7"/>
+      <c r="P170" s="31"/>
+    </row>
+    <row r="171" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K171" s="36"/>
+      <c r="L171" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="M171" s="7"/>
+      <c r="N171" s="7"/>
+      <c r="O171" s="7"/>
+      <c r="P171" s="31"/>
+    </row>
+    <row r="172" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K172" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="L172" s="7"/>
+      <c r="M172" s="7"/>
+      <c r="N172" s="7"/>
+      <c r="O172" s="7"/>
+      <c r="P172" s="31"/>
+    </row>
+    <row r="173" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K173" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="L173" s="7"/>
+      <c r="M173" s="7"/>
+      <c r="N173" s="7"/>
+      <c r="O173" s="7"/>
+      <c r="P173" s="31"/>
+    </row>
+    <row r="174" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K174" s="36"/>
+      <c r="L174" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="M174" s="7"/>
+      <c r="N174" s="7"/>
+      <c r="O174" s="7"/>
+      <c r="P174" s="31"/>
+    </row>
+    <row r="175" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K175" s="36"/>
+      <c r="L175" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="M175" s="7"/>
+      <c r="N175" s="7"/>
+      <c r="O175" s="7"/>
+      <c r="P175" s="31"/>
+    </row>
+    <row r="176" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K176" s="36"/>
+      <c r="L176" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="M176" s="7"/>
+      <c r="N176" s="7"/>
+      <c r="O176" s="7"/>
+      <c r="P176" s="31"/>
+    </row>
+    <row r="177" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K177" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="L177" s="7"/>
+      <c r="M177" s="7"/>
+      <c r="N177" s="7"/>
+      <c r="O177" s="7"/>
+      <c r="P177" s="31"/>
+    </row>
+    <row r="178" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K178" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="L178" s="7"/>
+      <c r="M178" s="7"/>
+      <c r="N178" s="7"/>
+      <c r="O178" s="7"/>
+      <c r="P178" s="31"/>
+    </row>
+    <row r="179" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K179" s="36"/>
+      <c r="L179" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="M179" s="7"/>
+      <c r="N179" s="7"/>
+      <c r="O179" s="7"/>
+      <c r="P179" s="31"/>
+    </row>
+    <row r="180" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K180" s="36"/>
+      <c r="L180" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="M180" s="7"/>
+      <c r="N180" s="7"/>
+      <c r="O180" s="7"/>
+      <c r="P180" s="31"/>
+    </row>
+    <row r="181" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K181" s="36"/>
+      <c r="L181" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="M181" s="7"/>
+      <c r="N181" s="7"/>
+      <c r="O181" s="7"/>
+      <c r="P181" s="31"/>
+    </row>
+    <row r="182" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K182" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="L182" s="7"/>
+      <c r="M182" s="7"/>
+      <c r="N182" s="7"/>
+      <c r="O182" s="7"/>
+      <c r="P182" s="31"/>
+    </row>
+    <row r="183" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K183" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="L183" s="7"/>
+      <c r="M183" s="7"/>
+      <c r="N183" s="7"/>
+      <c r="O183" s="7"/>
+      <c r="P183" s="31"/>
+    </row>
+    <row r="184" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K184" s="36"/>
+      <c r="L184" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="M184" s="7"/>
+      <c r="N184" s="7"/>
+      <c r="O184" s="7"/>
+      <c r="P184" s="31"/>
+    </row>
+    <row r="185" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K185" s="36"/>
+      <c r="L185" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="M185" s="7"/>
+      <c r="N185" s="7"/>
+      <c r="O185" s="7"/>
+      <c r="P185" s="31"/>
+    </row>
+    <row r="186" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K186" s="36"/>
+      <c r="L186" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="M186" s="7"/>
+      <c r="N186" s="7"/>
+      <c r="O186" s="7"/>
+      <c r="P186" s="31"/>
+    </row>
+    <row r="187" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K187" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="L187" s="7"/>
+      <c r="M187" s="7"/>
+      <c r="N187" s="7"/>
+      <c r="O187" s="7"/>
+      <c r="P187" s="31"/>
+    </row>
+    <row r="188" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K188" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="L188" s="7"/>
+      <c r="M188" s="7"/>
+      <c r="N188" s="7"/>
+      <c r="O188" s="7"/>
+      <c r="P188" s="31"/>
+    </row>
+    <row r="189" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K189" s="36"/>
+      <c r="L189" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="M189" s="7"/>
+      <c r="N189" s="7"/>
+      <c r="O189" s="7"/>
+      <c r="P189" s="31"/>
+    </row>
+    <row r="190" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K190" s="36"/>
+      <c r="L190" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="M190" s="7"/>
+      <c r="N190" s="7"/>
+      <c r="O190" s="7"/>
+      <c r="P190" s="31"/>
+    </row>
+    <row r="191" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K191" s="36"/>
+      <c r="L191" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="M191" s="7"/>
+      <c r="N191" s="7"/>
+      <c r="O191" s="7"/>
+      <c r="P191" s="31"/>
+    </row>
+    <row r="192" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K192" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="L192" s="7"/>
+      <c r="M192" s="7"/>
+      <c r="N192" s="7"/>
+      <c r="O192" s="7"/>
+      <c r="P192" s="31"/>
+    </row>
+    <row r="193" spans="10:23" x14ac:dyDescent="0.2">
+      <c r="K193" s="32"/>
+      <c r="L193" s="33"/>
+      <c r="M193" s="33"/>
+      <c r="N193" s="33"/>
+      <c r="O193" s="33"/>
+      <c r="P193" s="34"/>
+    </row>
+    <row r="194" spans="10:23" x14ac:dyDescent="0.2">
+      <c r="K194" s="3"/>
+    </row>
+    <row r="196" spans="10:23" x14ac:dyDescent="0.2">
+      <c r="J196" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="197" spans="10:23" x14ac:dyDescent="0.2">
+      <c r="K197" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="198" spans="10:23" x14ac:dyDescent="0.2">
+      <c r="K198" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="L198" s="28"/>
+      <c r="M198" s="28"/>
+      <c r="N198" s="28"/>
+      <c r="O198" s="28"/>
+      <c r="P198" s="28"/>
+      <c r="Q198" s="28"/>
+      <c r="R198" s="28"/>
+      <c r="S198" s="28"/>
+      <c r="T198" s="28"/>
+      <c r="U198" s="28"/>
+      <c r="V198" s="28"/>
+      <c r="W198" s="29"/>
+    </row>
+    <row r="199" spans="10:23" x14ac:dyDescent="0.2">
+      <c r="K199" s="36"/>
+      <c r="L199" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M199" s="7"/>
+      <c r="N199" s="7"/>
+      <c r="O199" s="7"/>
+      <c r="P199" s="7"/>
+      <c r="Q199" s="7"/>
+      <c r="R199" s="7"/>
+      <c r="S199" s="7"/>
+      <c r="T199" s="7"/>
+      <c r="U199" s="7"/>
+      <c r="V199" s="7"/>
+      <c r="W199" s="31"/>
+    </row>
+    <row r="200" spans="10:23" x14ac:dyDescent="0.2">
+      <c r="K200" s="36"/>
+      <c r="L200" s="7"/>
+      <c r="M200" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="N200" s="7"/>
+      <c r="O200" s="7"/>
+      <c r="P200" s="7"/>
+      <c r="Q200" s="7"/>
+      <c r="R200" s="7"/>
+      <c r="S200" s="7"/>
+      <c r="T200" s="7"/>
+      <c r="U200" s="7"/>
+      <c r="V200" s="7"/>
+      <c r="W200" s="31"/>
+    </row>
+    <row r="201" spans="10:23" x14ac:dyDescent="0.2">
+      <c r="K201" s="36"/>
+      <c r="L201" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M201" s="7"/>
+      <c r="N201" s="7"/>
+      <c r="O201" s="7"/>
+      <c r="P201" s="7"/>
+      <c r="Q201" s="7"/>
+      <c r="R201" s="7"/>
+      <c r="S201" s="7"/>
+      <c r="T201" s="7"/>
+      <c r="U201" s="7"/>
+      <c r="V201" s="7"/>
+      <c r="W201" s="31"/>
+    </row>
+    <row r="202" spans="10:23" x14ac:dyDescent="0.2">
+      <c r="K202" s="36"/>
+      <c r="L202" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M202" s="7"/>
+      <c r="N202" s="7"/>
+      <c r="O202" s="7"/>
+      <c r="P202" s="7"/>
+      <c r="Q202" s="7"/>
+      <c r="R202" s="7"/>
+      <c r="S202" s="7"/>
+      <c r="T202" s="7"/>
+      <c r="U202" s="7"/>
+      <c r="V202" s="7"/>
+      <c r="W202" s="31"/>
+    </row>
+    <row r="203" spans="10:23" x14ac:dyDescent="0.2">
+      <c r="K203" s="36"/>
+      <c r="L203" s="7"/>
+      <c r="M203" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="N203" s="7"/>
+      <c r="O203" s="7"/>
+      <c r="P203" s="7"/>
+      <c r="Q203" s="7"/>
+      <c r="R203" s="7"/>
+      <c r="S203" s="7"/>
+      <c r="T203" s="7"/>
+      <c r="U203" s="7"/>
+      <c r="V203" s="7"/>
+      <c r="W203" s="31"/>
+    </row>
+    <row r="204" spans="10:23" x14ac:dyDescent="0.2">
+      <c r="K204" s="37"/>
+      <c r="L204" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="M204" s="33"/>
+      <c r="N204" s="33"/>
+      <c r="O204" s="33"/>
+      <c r="P204" s="33"/>
+      <c r="Q204" s="33"/>
+      <c r="R204" s="33"/>
+      <c r="S204" s="33"/>
+      <c r="T204" s="33"/>
+      <c r="U204" s="33"/>
+      <c r="V204" s="33"/>
+      <c r="W204" s="34"/>
+    </row>
+    <row r="206" spans="10:23" x14ac:dyDescent="0.2">
+      <c r="K206" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="209" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J209" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="210" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J210" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="211" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J211" s="3"/>
+      <c r="K211" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="212" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="K212" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="213" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="K213" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="L213" s="28"/>
+      <c r="M213" s="28"/>
+      <c r="N213" s="28"/>
+      <c r="O213" s="28"/>
+      <c r="P213" s="28"/>
+      <c r="Q213" s="28"/>
+      <c r="R213" s="28"/>
+      <c r="S213" s="28"/>
+      <c r="T213" s="28"/>
+      <c r="U213" s="29"/>
+    </row>
+    <row r="214" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="K214" s="36"/>
+      <c r="L214" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M214" s="7"/>
+      <c r="N214" s="7"/>
+      <c r="O214" s="7"/>
+      <c r="P214" s="7"/>
+      <c r="Q214" s="7"/>
+      <c r="R214" s="7"/>
+      <c r="S214" s="7"/>
+      <c r="T214" s="7"/>
+      <c r="U214" s="31"/>
+    </row>
+    <row r="215" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="K215" s="36"/>
+      <c r="L215" s="7"/>
+      <c r="M215" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="N215" s="7"/>
+      <c r="O215" s="7"/>
+      <c r="P215" s="7"/>
+      <c r="Q215" s="7"/>
+      <c r="R215" s="7"/>
+      <c r="S215" s="7"/>
+      <c r="T215" s="7"/>
+      <c r="U215" s="31"/>
+    </row>
+    <row r="216" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="K216" s="36"/>
+      <c r="L216" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M216" s="7"/>
+      <c r="N216" s="7"/>
+      <c r="O216" s="7"/>
+      <c r="P216" s="7"/>
+      <c r="Q216" s="7"/>
+      <c r="R216" s="7"/>
+      <c r="S216" s="7"/>
+      <c r="T216" s="7"/>
+      <c r="U216" s="31"/>
+    </row>
+    <row r="217" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="K217" s="36"/>
+      <c r="L217" s="7"/>
+      <c r="M217" s="7"/>
+      <c r="N217" s="7"/>
+      <c r="O217" s="7"/>
+      <c r="P217" s="7"/>
+      <c r="Q217" s="7"/>
+      <c r="R217" s="7"/>
+      <c r="S217" s="7"/>
+      <c r="T217" s="7"/>
+      <c r="U217" s="31"/>
+    </row>
+    <row r="218" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="K218" s="36"/>
+      <c r="L218" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M218" s="7"/>
+      <c r="N218" s="7"/>
+      <c r="O218" s="7"/>
+      <c r="P218" s="7"/>
+      <c r="Q218" s="7"/>
+      <c r="R218" s="7"/>
+      <c r="S218" s="7"/>
+      <c r="T218" s="7"/>
+      <c r="U218" s="31"/>
+    </row>
+    <row r="219" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="K219" s="37"/>
+      <c r="L219" s="33"/>
+      <c r="M219" s="33"/>
+      <c r="N219" s="33"/>
+      <c r="O219" s="33"/>
+      <c r="P219" s="33"/>
+      <c r="Q219" s="33"/>
+      <c r="R219" s="33"/>
+      <c r="S219" s="33"/>
+      <c r="T219" s="33"/>
+      <c r="U219" s="34"/>
+    </row>
+    <row r="222" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J222" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="223" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J223" s="40" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="224" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J224" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="225" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K225" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="226" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K226" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="L226" s="28"/>
+      <c r="M226" s="28"/>
+      <c r="N226" s="28"/>
+      <c r="O226" s="28"/>
+      <c r="P226" s="28"/>
+      <c r="Q226" s="29"/>
+    </row>
+    <row r="227" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K227" s="36"/>
+      <c r="L227" s="7"/>
+      <c r="M227" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="N227" s="7"/>
+      <c r="O227" s="7"/>
+      <c r="P227" s="7"/>
+      <c r="Q227" s="31"/>
+    </row>
+    <row r="228" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K228" s="36"/>
+      <c r="L228" s="7"/>
+      <c r="M228" s="7"/>
+      <c r="N228" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="O228" s="7"/>
+      <c r="P228" s="7"/>
+      <c r="Q228" s="31"/>
+    </row>
+    <row r="229" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K229" s="36"/>
+      <c r="L229" s="7"/>
+      <c r="M229" s="7"/>
+      <c r="N229" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="O229" s="7"/>
+      <c r="P229" s="7"/>
+      <c r="Q229" s="31"/>
+    </row>
+    <row r="230" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K230" s="36"/>
+      <c r="L230" s="7"/>
+      <c r="M230" s="7"/>
+      <c r="N230" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O230" s="7"/>
+      <c r="P230" s="7"/>
+      <c r="Q230" s="31"/>
+    </row>
+    <row r="231" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K231" s="36"/>
+      <c r="L231" s="7"/>
+      <c r="M231" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="N231" s="7"/>
+      <c r="O231" s="7"/>
+      <c r="P231" s="7"/>
+      <c r="Q231" s="31"/>
+    </row>
+    <row r="232" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K232" s="36"/>
+      <c r="L232" s="7"/>
+      <c r="M232" s="7"/>
+      <c r="N232" s="7"/>
+      <c r="O232" s="7"/>
+      <c r="P232" s="7"/>
+      <c r="Q232" s="31"/>
+    </row>
+    <row r="233" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K233" s="36"/>
+      <c r="L233" s="7"/>
+      <c r="M233" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N233" s="7"/>
+      <c r="O233" s="7"/>
+      <c r="P233" s="7"/>
+      <c r="Q233" s="31"/>
+    </row>
+    <row r="234" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K234" s="36"/>
+      <c r="L234" s="7"/>
+      <c r="M234" s="7"/>
+      <c r="N234" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="O234" s="7"/>
+      <c r="P234" s="7"/>
+      <c r="Q234" s="31"/>
+    </row>
+    <row r="235" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K235" s="36"/>
+      <c r="L235" s="7"/>
+      <c r="M235" s="7"/>
+      <c r="N235" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="O235" s="7"/>
+      <c r="P235" s="7"/>
+      <c r="Q235" s="31"/>
+    </row>
+    <row r="236" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K236" s="36"/>
+      <c r="L236" s="7"/>
+      <c r="M236" s="7"/>
+      <c r="N236" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="O236" s="7"/>
+      <c r="P236" s="7"/>
+      <c r="Q236" s="31"/>
+    </row>
+    <row r="237" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K237" s="37"/>
+      <c r="L237" s="33"/>
+      <c r="M237" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="N237" s="33"/>
+      <c r="O237" s="33"/>
+      <c r="P237" s="33"/>
+      <c r="Q237" s="34"/>
+    </row>
+    <row r="239" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J239" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="240" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K240" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="241" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="K241" s="39"/>
+      <c r="L241" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="M241" s="28"/>
+      <c r="N241" s="28"/>
+      <c r="O241" s="28"/>
+      <c r="P241" s="28"/>
+      <c r="Q241" s="28"/>
+      <c r="R241" s="29"/>
+    </row>
+    <row r="242" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="K242" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="L242" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="M242" s="7"/>
+      <c r="N242" s="7"/>
+      <c r="O242" s="7"/>
+      <c r="P242" s="7"/>
+      <c r="Q242" s="7"/>
+      <c r="R242" s="31"/>
+    </row>
+    <row r="243" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="K243" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="L243" s="7"/>
+      <c r="M243" s="7"/>
+      <c r="N243" s="7"/>
+      <c r="O243" s="7"/>
+      <c r="P243" s="7"/>
+      <c r="Q243" s="7"/>
+      <c r="R243" s="31"/>
+    </row>
+    <row r="244" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="K244" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="L244" s="7"/>
+      <c r="M244" s="7"/>
+      <c r="N244" s="7"/>
+      <c r="O244" s="7"/>
+      <c r="P244" s="7"/>
+      <c r="Q244" s="7"/>
+      <c r="R244" s="31"/>
+    </row>
+    <row r="245" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="K245" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="L245" s="7"/>
+      <c r="M245" s="7"/>
+      <c r="N245" s="7"/>
+      <c r="O245" s="7"/>
+      <c r="P245" s="7"/>
+      <c r="Q245" s="7"/>
+      <c r="R245" s="31"/>
+    </row>
+    <row r="246" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="K246" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="L246" s="7"/>
+      <c r="M246" s="7"/>
+      <c r="N246" s="7"/>
+      <c r="O246" s="7"/>
+      <c r="P246" s="7"/>
+      <c r="Q246" s="7"/>
+      <c r="R246" s="31"/>
+    </row>
+    <row r="247" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="K247" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="L247" s="33"/>
+      <c r="M247" s="33"/>
+      <c r="N247" s="33"/>
+      <c r="O247" s="33"/>
+      <c r="P247" s="33"/>
+      <c r="Q247" s="33"/>
+      <c r="R247" s="34"/>
+    </row>
+    <row r="251" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J251" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="252" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J252" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="253" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J253" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="254" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J254" s="6"/>
+      <c r="K254" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="255" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="K255" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="L255" s="28"/>
+      <c r="M255" s="28"/>
+      <c r="N255" s="28"/>
+      <c r="O255" s="28"/>
+      <c r="P255" s="28"/>
+      <c r="Q255" s="28"/>
+      <c r="R255" s="29"/>
+    </row>
+    <row r="256" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="K256" s="36"/>
+      <c r="L256" s="7"/>
+      <c r="M256" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N256" s="7"/>
+      <c r="O256" s="7"/>
+      <c r="P256" s="7"/>
+      <c r="Q256" s="7"/>
+      <c r="R256" s="31"/>
+    </row>
+    <row r="257" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K257" s="36"/>
+      <c r="L257" s="7"/>
+      <c r="M257" s="7"/>
+      <c r="N257" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="O257" s="7"/>
+      <c r="P257" s="7"/>
+      <c r="Q257" s="7"/>
+      <c r="R257" s="31"/>
+    </row>
+    <row r="258" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K258" s="36"/>
+      <c r="L258" s="7"/>
+      <c r="M258" s="7"/>
+      <c r="N258" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="O258" s="7"/>
+      <c r="P258" s="7"/>
+      <c r="Q258" s="7"/>
+      <c r="R258" s="31"/>
+    </row>
+    <row r="259" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K259" s="36"/>
+      <c r="L259" s="7"/>
+      <c r="M259" s="7"/>
+      <c r="N259" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="O259" s="7"/>
+      <c r="P259" s="7"/>
+      <c r="Q259" s="7"/>
+      <c r="R259" s="31"/>
+    </row>
+    <row r="260" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K260" s="36"/>
+      <c r="L260" s="7"/>
+      <c r="M260" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N260" s="7"/>
+      <c r="O260" s="7"/>
+      <c r="P260" s="7"/>
+      <c r="Q260" s="7"/>
+      <c r="R260" s="31"/>
+    </row>
+    <row r="261" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K261" s="36"/>
+      <c r="L261" s="7"/>
+      <c r="M261" s="7"/>
+      <c r="N261" s="7"/>
+      <c r="O261" s="7"/>
+      <c r="P261" s="7"/>
+      <c r="Q261" s="7"/>
+      <c r="R261" s="31"/>
+    </row>
+    <row r="262" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K262" s="36"/>
+      <c r="L262" s="7"/>
+      <c r="M262" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="N262" s="7"/>
+      <c r="O262" s="7"/>
+      <c r="P262" s="7"/>
+      <c r="Q262" s="7"/>
+      <c r="R262" s="31"/>
+    </row>
+    <row r="263" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K263" s="36"/>
+      <c r="L263" s="7"/>
+      <c r="M263" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N263" s="7"/>
+      <c r="O263" s="7"/>
+      <c r="P263" s="7"/>
+      <c r="Q263" s="7"/>
+      <c r="R263" s="31"/>
+    </row>
+    <row r="264" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K264" s="36"/>
+      <c r="L264" s="7"/>
+      <c r="M264" s="7"/>
+      <c r="N264" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="O264" s="7"/>
+      <c r="P264" s="7"/>
+      <c r="Q264" s="7"/>
+      <c r="R264" s="31"/>
+    </row>
+    <row r="265" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K265" s="36"/>
+      <c r="L265" s="7"/>
+      <c r="M265" s="7"/>
+      <c r="N265" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="O265" s="7"/>
+      <c r="P265" s="7"/>
+      <c r="Q265" s="7"/>
+      <c r="R265" s="31"/>
+    </row>
+    <row r="266" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K266" s="36"/>
+      <c r="L266" s="7"/>
+      <c r="M266" s="7"/>
+      <c r="N266" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="O266" s="7"/>
+      <c r="P266" s="7"/>
+      <c r="Q266" s="7"/>
+      <c r="R266" s="31"/>
+    </row>
+    <row r="267" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K267" s="36"/>
+      <c r="L267" s="7"/>
+      <c r="M267" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N267" s="7"/>
+      <c r="O267" s="7"/>
+      <c r="P267" s="7"/>
+      <c r="Q267" s="7"/>
+      <c r="R267" s="31"/>
+    </row>
+    <row r="268" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K268" s="36"/>
+      <c r="L268" s="7"/>
+      <c r="M268" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N268" s="7"/>
+      <c r="O268" s="7"/>
+      <c r="P268" s="7"/>
+      <c r="Q268" s="7"/>
+      <c r="R268" s="31"/>
+    </row>
+    <row r="269" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K269" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="L269" s="7"/>
+      <c r="M269" s="7"/>
+      <c r="N269" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="O269" s="7"/>
+      <c r="P269" s="7"/>
+      <c r="Q269" s="7"/>
+      <c r="R269" s="31"/>
+    </row>
+    <row r="270" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K270" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="L270" s="7"/>
+      <c r="M270" s="7"/>
+      <c r="N270" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="O270" s="7"/>
+      <c r="P270" s="7"/>
+      <c r="Q270" s="7"/>
+      <c r="R270" s="31"/>
+    </row>
+    <row r="271" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K271" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="L271" s="7"/>
+      <c r="M271" s="7"/>
+      <c r="N271" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="O271" s="7"/>
+      <c r="P271" s="7"/>
+      <c r="Q271" s="7"/>
+      <c r="R271" s="31"/>
+    </row>
+    <row r="272" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K272" s="37"/>
+      <c r="L272" s="33"/>
+      <c r="M272" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="N272" s="33"/>
+      <c r="O272" s="33"/>
+      <c r="P272" s="33"/>
+      <c r="Q272" s="33"/>
+      <c r="R272" s="34"/>
+    </row>
+    <row r="274" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K274" s="3" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/00_기타/spring 설정.xlsx
+++ b/00_기타/spring 설정.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="187">
   <si>
     <t xml:space="preserve">Srping 설정 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -865,6 +865,19 @@
   </si>
   <si>
     <t>- JUnit TEST 성공!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;groupId&gt;org.springframework&lt;/groupId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;artifactId&gt;spring-test&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;version&gt;${org.springframework-version}&lt;/version&gt;</t>
+  </si>
+  <si>
+    <t>- spring-test (junit 사용할 수 있는 dependency)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1190,7 +1203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1226,14 +1239,17 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1298,16 +1314,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>274</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>418619</xdr:colOff>
-      <xdr:row>283</xdr:row>
-      <xdr:rowOff>85511</xdr:rowOff>
+      <xdr:colOff>94769</xdr:colOff>
+      <xdr:row>299</xdr:row>
+      <xdr:rowOff>37886</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1324,7 +1340,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6858000" y="49587150"/>
+          <a:off x="6534150" y="52254150"/>
           <a:ext cx="3847619" cy="1714286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1624,10 +1640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z274"/>
+  <dimension ref="A1:Z287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H245" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K274" sqref="K274"/>
+    <sheetView tabSelected="1" topLeftCell="A245" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K255" sqref="K255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1636,62 +1652,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
     </row>
     <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -3000,7 +3016,7 @@
       <c r="Q149" s="31"/>
     </row>
     <row r="150" spans="11:17" x14ac:dyDescent="0.2">
-      <c r="K150" s="36"/>
+      <c r="K150" s="35"/>
       <c r="L150" s="7"/>
       <c r="M150" s="7"/>
       <c r="N150" s="7"/>
@@ -3009,7 +3025,7 @@
       <c r="Q150" s="31"/>
     </row>
     <row r="151" spans="11:17" x14ac:dyDescent="0.2">
-      <c r="K151" s="36"/>
+      <c r="K151" s="35"/>
       <c r="L151" s="7" t="s">
         <v>22</v>
       </c>
@@ -3020,7 +3036,7 @@
       <c r="Q151" s="31"/>
     </row>
     <row r="152" spans="11:17" x14ac:dyDescent="0.2">
-      <c r="K152" s="36"/>
+      <c r="K152" s="35"/>
       <c r="L152" s="7"/>
       <c r="M152" s="7" t="s">
         <v>116</v>
@@ -3031,7 +3047,7 @@
       <c r="Q152" s="31"/>
     </row>
     <row r="153" spans="11:17" x14ac:dyDescent="0.2">
-      <c r="K153" s="36"/>
+      <c r="K153" s="35"/>
       <c r="L153" s="7"/>
       <c r="M153" s="7" t="s">
         <v>117</v>
@@ -3042,7 +3058,7 @@
       <c r="Q153" s="31"/>
     </row>
     <row r="154" spans="11:17" x14ac:dyDescent="0.2">
-      <c r="K154" s="36"/>
+      <c r="K154" s="35"/>
       <c r="L154" s="7"/>
       <c r="M154" s="7" t="s">
         <v>118</v>
@@ -3053,7 +3069,7 @@
       <c r="Q154" s="31"/>
     </row>
     <row r="155" spans="11:17" x14ac:dyDescent="0.2">
-      <c r="K155" s="36"/>
+      <c r="K155" s="35"/>
       <c r="L155" s="7" t="s">
         <v>26</v>
       </c>
@@ -3064,7 +3080,7 @@
       <c r="Q155" s="31"/>
     </row>
     <row r="156" spans="11:17" x14ac:dyDescent="0.2">
-      <c r="K156" s="36"/>
+      <c r="K156" s="35"/>
       <c r="L156" s="7" t="s">
         <v>119</v>
       </c>
@@ -3075,7 +3091,7 @@
       <c r="Q156" s="31"/>
     </row>
     <row r="157" spans="11:17" x14ac:dyDescent="0.2">
-      <c r="K157" s="36"/>
+      <c r="K157" s="35"/>
       <c r="L157" s="7" t="s">
         <v>22</v>
       </c>
@@ -3086,7 +3102,7 @@
       <c r="Q157" s="31"/>
     </row>
     <row r="158" spans="11:17" x14ac:dyDescent="0.2">
-      <c r="K158" s="36"/>
+      <c r="K158" s="35"/>
       <c r="L158" s="7"/>
       <c r="M158" s="7" t="s">
         <v>116</v>
@@ -3097,7 +3113,7 @@
       <c r="Q158" s="31"/>
     </row>
     <row r="159" spans="11:17" x14ac:dyDescent="0.2">
-      <c r="K159" s="36"/>
+      <c r="K159" s="35"/>
       <c r="L159" s="7"/>
       <c r="M159" s="7" t="s">
         <v>120</v>
@@ -3108,7 +3124,7 @@
       <c r="Q159" s="31"/>
     </row>
     <row r="160" spans="11:17" x14ac:dyDescent="0.2">
-      <c r="K160" s="36"/>
+      <c r="K160" s="35"/>
       <c r="L160" s="7"/>
       <c r="M160" s="7" t="s">
         <v>118</v>
@@ -3119,7 +3135,7 @@
       <c r="Q160" s="31"/>
     </row>
     <row r="161" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="K161" s="37"/>
+      <c r="K161" s="36"/>
       <c r="L161" s="33" t="s">
         <v>26</v>
       </c>
@@ -3165,8 +3181,8 @@
       <c r="P168" s="31"/>
     </row>
     <row r="169" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="K169" s="36"/>
-      <c r="L169" s="38" t="s">
+      <c r="K169" s="35"/>
+      <c r="L169" s="37" t="s">
         <v>123</v>
       </c>
       <c r="M169" s="7"/>
@@ -3175,8 +3191,8 @@
       <c r="P169" s="31"/>
     </row>
     <row r="170" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="K170" s="36"/>
-      <c r="L170" s="38" t="s">
+      <c r="K170" s="35"/>
+      <c r="L170" s="37" t="s">
         <v>124</v>
       </c>
       <c r="M170" s="7"/>
@@ -3185,8 +3201,8 @@
       <c r="P170" s="31"/>
     </row>
     <row r="171" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="K171" s="36"/>
-      <c r="L171" s="38" t="s">
+      <c r="K171" s="35"/>
+      <c r="L171" s="37" t="s">
         <v>125</v>
       </c>
       <c r="M171" s="7"/>
@@ -3215,8 +3231,8 @@
       <c r="P173" s="31"/>
     </row>
     <row r="174" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="K174" s="36"/>
-      <c r="L174" s="38" t="s">
+      <c r="K174" s="35"/>
+      <c r="L174" s="37" t="s">
         <v>123</v>
       </c>
       <c r="M174" s="7"/>
@@ -3225,8 +3241,8 @@
       <c r="P174" s="31"/>
     </row>
     <row r="175" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="K175" s="36"/>
-      <c r="L175" s="38" t="s">
+      <c r="K175" s="35"/>
+      <c r="L175" s="37" t="s">
         <v>128</v>
       </c>
       <c r="M175" s="7"/>
@@ -3235,8 +3251,8 @@
       <c r="P175" s="31"/>
     </row>
     <row r="176" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="K176" s="36"/>
-      <c r="L176" s="38" t="s">
+      <c r="K176" s="35"/>
+      <c r="L176" s="37" t="s">
         <v>125</v>
       </c>
       <c r="M176" s="7"/>
@@ -3265,8 +3281,8 @@
       <c r="P178" s="31"/>
     </row>
     <row r="179" spans="11:16" x14ac:dyDescent="0.2">
-      <c r="K179" s="36"/>
-      <c r="L179" s="38" t="s">
+      <c r="K179" s="35"/>
+      <c r="L179" s="37" t="s">
         <v>123</v>
       </c>
       <c r="M179" s="7"/>
@@ -3275,8 +3291,8 @@
       <c r="P179" s="31"/>
     </row>
     <row r="180" spans="11:16" x14ac:dyDescent="0.2">
-      <c r="K180" s="36"/>
-      <c r="L180" s="38" t="s">
+      <c r="K180" s="35"/>
+      <c r="L180" s="37" t="s">
         <v>129</v>
       </c>
       <c r="M180" s="7"/>
@@ -3285,8 +3301,8 @@
       <c r="P180" s="31"/>
     </row>
     <row r="181" spans="11:16" x14ac:dyDescent="0.2">
-      <c r="K181" s="36"/>
-      <c r="L181" s="38" t="s">
+      <c r="K181" s="35"/>
+      <c r="L181" s="37" t="s">
         <v>125</v>
       </c>
       <c r="M181" s="7"/>
@@ -3315,8 +3331,8 @@
       <c r="P183" s="31"/>
     </row>
     <row r="184" spans="11:16" x14ac:dyDescent="0.2">
-      <c r="K184" s="36"/>
-      <c r="L184" s="38" t="s">
+      <c r="K184" s="35"/>
+      <c r="L184" s="37" t="s">
         <v>123</v>
       </c>
       <c r="M184" s="7"/>
@@ -3325,8 +3341,8 @@
       <c r="P184" s="31"/>
     </row>
     <row r="185" spans="11:16" x14ac:dyDescent="0.2">
-      <c r="K185" s="36"/>
-      <c r="L185" s="38" t="s">
+      <c r="K185" s="35"/>
+      <c r="L185" s="37" t="s">
         <v>130</v>
       </c>
       <c r="M185" s="7"/>
@@ -3335,8 +3351,8 @@
       <c r="P185" s="31"/>
     </row>
     <row r="186" spans="11:16" x14ac:dyDescent="0.2">
-      <c r="K186" s="36"/>
-      <c r="L186" s="38" t="s">
+      <c r="K186" s="35"/>
+      <c r="L186" s="37" t="s">
         <v>125</v>
       </c>
       <c r="M186" s="7"/>
@@ -3365,8 +3381,8 @@
       <c r="P188" s="31"/>
     </row>
     <row r="189" spans="11:16" x14ac:dyDescent="0.2">
-      <c r="K189" s="36"/>
-      <c r="L189" s="38" t="s">
+      <c r="K189" s="35"/>
+      <c r="L189" s="37" t="s">
         <v>123</v>
       </c>
       <c r="M189" s="7"/>
@@ -3375,8 +3391,8 @@
       <c r="P189" s="31"/>
     </row>
     <row r="190" spans="11:16" x14ac:dyDescent="0.2">
-      <c r="K190" s="36"/>
-      <c r="L190" s="38" t="s">
+      <c r="K190" s="35"/>
+      <c r="L190" s="37" t="s">
         <v>132</v>
       </c>
       <c r="M190" s="7"/>
@@ -3385,8 +3401,8 @@
       <c r="P190" s="31"/>
     </row>
     <row r="191" spans="11:16" x14ac:dyDescent="0.2">
-      <c r="K191" s="36"/>
-      <c r="L191" s="38" t="s">
+      <c r="K191" s="35"/>
+      <c r="L191" s="37" t="s">
         <v>125</v>
       </c>
       <c r="M191" s="7"/>
@@ -3426,7 +3442,7 @@
       </c>
     </row>
     <row r="198" spans="10:23" x14ac:dyDescent="0.2">
-      <c r="K198" s="39" t="s">
+      <c r="K198" s="38" t="s">
         <v>136</v>
       </c>
       <c r="L198" s="28"/>
@@ -3443,7 +3459,7 @@
       <c r="W198" s="29"/>
     </row>
     <row r="199" spans="10:23" x14ac:dyDescent="0.2">
-      <c r="K199" s="36"/>
+      <c r="K199" s="35"/>
       <c r="L199" s="7" t="s">
         <v>137</v>
       </c>
@@ -3460,7 +3476,7 @@
       <c r="W199" s="31"/>
     </row>
     <row r="200" spans="10:23" x14ac:dyDescent="0.2">
-      <c r="K200" s="36"/>
+      <c r="K200" s="35"/>
       <c r="L200" s="7"/>
       <c r="M200" s="7" t="s">
         <v>138</v>
@@ -3477,7 +3493,7 @@
       <c r="W200" s="31"/>
     </row>
     <row r="201" spans="10:23" x14ac:dyDescent="0.2">
-      <c r="K201" s="36"/>
+      <c r="K201" s="35"/>
       <c r="L201" s="7" t="s">
         <v>139</v>
       </c>
@@ -3494,7 +3510,7 @@
       <c r="W201" s="31"/>
     </row>
     <row r="202" spans="10:23" x14ac:dyDescent="0.2">
-      <c r="K202" s="36"/>
+      <c r="K202" s="35"/>
       <c r="L202" s="7" t="s">
         <v>140</v>
       </c>
@@ -3511,7 +3527,7 @@
       <c r="W202" s="31"/>
     </row>
     <row r="203" spans="10:23" x14ac:dyDescent="0.2">
-      <c r="K203" s="36"/>
+      <c r="K203" s="35"/>
       <c r="L203" s="7"/>
       <c r="M203" s="7" t="s">
         <v>141</v>
@@ -3528,7 +3544,7 @@
       <c r="W203" s="31"/>
     </row>
     <row r="204" spans="10:23" x14ac:dyDescent="0.2">
-      <c r="K204" s="37"/>
+      <c r="K204" s="36"/>
       <c r="L204" s="33" t="s">
         <v>139</v>
       </c>
@@ -3571,7 +3587,7 @@
       </c>
     </row>
     <row r="213" spans="10:21" x14ac:dyDescent="0.2">
-      <c r="K213" s="39" t="s">
+      <c r="K213" s="38" t="s">
         <v>145</v>
       </c>
       <c r="L213" s="28"/>
@@ -3586,7 +3602,7 @@
       <c r="U213" s="29"/>
     </row>
     <row r="214" spans="10:21" x14ac:dyDescent="0.2">
-      <c r="K214" s="36"/>
+      <c r="K214" s="35"/>
       <c r="L214" s="7" t="s">
         <v>146</v>
       </c>
@@ -3601,7 +3617,7 @@
       <c r="U214" s="31"/>
     </row>
     <row r="215" spans="10:21" x14ac:dyDescent="0.2">
-      <c r="K215" s="36"/>
+      <c r="K215" s="35"/>
       <c r="L215" s="7"/>
       <c r="M215" s="7" t="s">
         <v>58</v>
@@ -3616,7 +3632,7 @@
       <c r="U215" s="31"/>
     </row>
     <row r="216" spans="10:21" x14ac:dyDescent="0.2">
-      <c r="K216" s="36"/>
+      <c r="K216" s="35"/>
       <c r="L216" s="7" t="s">
         <v>46</v>
       </c>
@@ -3631,7 +3647,7 @@
       <c r="U216" s="31"/>
     </row>
     <row r="217" spans="10:21" x14ac:dyDescent="0.2">
-      <c r="K217" s="36"/>
+      <c r="K217" s="35"/>
       <c r="L217" s="7"/>
       <c r="M217" s="7"/>
       <c r="N217" s="7"/>
@@ -3644,7 +3660,7 @@
       <c r="U217" s="31"/>
     </row>
     <row r="218" spans="10:21" x14ac:dyDescent="0.2">
-      <c r="K218" s="36"/>
+      <c r="K218" s="35"/>
       <c r="L218" s="7" t="s">
         <v>147</v>
       </c>
@@ -3659,7 +3675,7 @@
       <c r="U218" s="31"/>
     </row>
     <row r="219" spans="10:21" x14ac:dyDescent="0.2">
-      <c r="K219" s="37"/>
+      <c r="K219" s="36"/>
       <c r="L219" s="33"/>
       <c r="M219" s="33"/>
       <c r="N219" s="33"/>
@@ -3677,7 +3693,7 @@
       </c>
     </row>
     <row r="223" spans="10:21" x14ac:dyDescent="0.2">
-      <c r="J223" s="40" t="s">
+      <c r="J223" s="39" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3692,7 +3708,7 @@
       </c>
     </row>
     <row r="226" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="K226" s="39" t="s">
+      <c r="K226" s="38" t="s">
         <v>153</v>
       </c>
       <c r="L226" s="28"/>
@@ -3703,7 +3719,7 @@
       <c r="Q226" s="29"/>
     </row>
     <row r="227" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="K227" s="36"/>
+      <c r="K227" s="35"/>
       <c r="L227" s="7"/>
       <c r="M227" s="7" t="s">
         <v>154</v>
@@ -3714,7 +3730,7 @@
       <c r="Q227" s="31"/>
     </row>
     <row r="228" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="K228" s="36"/>
+      <c r="K228" s="35"/>
       <c r="L228" s="7"/>
       <c r="M228" s="7"/>
       <c r="N228" s="7" t="s">
@@ -3725,7 +3741,7 @@
       <c r="Q228" s="31"/>
     </row>
     <row r="229" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="K229" s="36"/>
+      <c r="K229" s="35"/>
       <c r="L229" s="7"/>
       <c r="M229" s="7"/>
       <c r="N229" s="7" t="s">
@@ -3736,7 +3752,7 @@
       <c r="Q229" s="31"/>
     </row>
     <row r="230" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="K230" s="36"/>
+      <c r="K230" s="35"/>
       <c r="L230" s="7"/>
       <c r="M230" s="7"/>
       <c r="N230" s="7" t="s">
@@ -3747,7 +3763,7 @@
       <c r="Q230" s="31"/>
     </row>
     <row r="231" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="K231" s="36"/>
+      <c r="K231" s="35"/>
       <c r="L231" s="7"/>
       <c r="M231" s="7" t="s">
         <v>158</v>
@@ -3758,7 +3774,7 @@
       <c r="Q231" s="31"/>
     </row>
     <row r="232" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="K232" s="36"/>
+      <c r="K232" s="35"/>
       <c r="L232" s="7"/>
       <c r="M232" s="7"/>
       <c r="N232" s="7"/>
@@ -3767,7 +3783,7 @@
       <c r="Q232" s="31"/>
     </row>
     <row r="233" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="K233" s="36"/>
+      <c r="K233" s="35"/>
       <c r="L233" s="7"/>
       <c r="M233" s="7" t="s">
         <v>22</v>
@@ -3778,7 +3794,7 @@
       <c r="Q233" s="31"/>
     </row>
     <row r="234" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="K234" s="36"/>
+      <c r="K234" s="35"/>
       <c r="L234" s="7"/>
       <c r="M234" s="7"/>
       <c r="N234" s="7" t="s">
@@ -3789,7 +3805,7 @@
       <c r="Q234" s="31"/>
     </row>
     <row r="235" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="K235" s="36"/>
+      <c r="K235" s="35"/>
       <c r="L235" s="7"/>
       <c r="M235" s="7"/>
       <c r="N235" s="7" t="s">
@@ -3800,7 +3816,7 @@
       <c r="Q235" s="31"/>
     </row>
     <row r="236" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="K236" s="36"/>
+      <c r="K236" s="35"/>
       <c r="L236" s="7"/>
       <c r="M236" s="7"/>
       <c r="N236" s="7" t="s">
@@ -3811,7 +3827,7 @@
       <c r="Q236" s="31"/>
     </row>
     <row r="237" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="K237" s="37"/>
+      <c r="K237" s="36"/>
       <c r="L237" s="33"/>
       <c r="M237" s="33" t="s">
         <v>26</v>
@@ -3832,7 +3848,7 @@
       </c>
     </row>
     <row r="241" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="K241" s="39"/>
+      <c r="K241" s="38"/>
       <c r="L241" s="28" t="s">
         <v>162</v>
       </c>
@@ -3844,7 +3860,7 @@
       <c r="R241" s="29"/>
     </row>
     <row r="242" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="K242" s="36" t="s">
+      <c r="K242" s="35" t="s">
         <v>119</v>
       </c>
       <c r="L242" s="7" t="s">
@@ -3858,7 +3874,7 @@
       <c r="R242" s="31"/>
     </row>
     <row r="243" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="K243" s="36" t="s">
+      <c r="K243" s="35" t="s">
         <v>164</v>
       </c>
       <c r="L243" s="7"/>
@@ -3870,7 +3886,7 @@
       <c r="R243" s="31"/>
     </row>
     <row r="244" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="K244" s="36" t="s">
+      <c r="K244" s="35" t="s">
         <v>165</v>
       </c>
       <c r="L244" s="7"/>
@@ -3882,7 +3898,7 @@
       <c r="R244" s="31"/>
     </row>
     <row r="245" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="K245" s="36" t="s">
+      <c r="K245" s="35" t="s">
         <v>166</v>
       </c>
       <c r="L245" s="7"/>
@@ -3894,7 +3910,7 @@
       <c r="R245" s="31"/>
     </row>
     <row r="246" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="K246" s="36" t="s">
+      <c r="K246" s="35" t="s">
         <v>167</v>
       </c>
       <c r="L246" s="7"/>
@@ -3906,7 +3922,7 @@
       <c r="R246" s="31"/>
     </row>
     <row r="247" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="K247" s="37" t="s">
+      <c r="K247" s="36" t="s">
         <v>168</v>
       </c>
       <c r="L247" s="33"/>
@@ -3939,47 +3955,41 @@
       </c>
     </row>
     <row r="255" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="K255" s="39" t="s">
+      <c r="J255" s="6"/>
+      <c r="K255" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="256" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="K256" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="L255" s="28"/>
-      <c r="M255" s="28"/>
-      <c r="N255" s="28"/>
-      <c r="O255" s="28"/>
-      <c r="P255" s="28"/>
-      <c r="Q255" s="28"/>
-      <c r="R255" s="29"/>
-    </row>
-    <row r="256" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="K256" s="36"/>
-      <c r="L256" s="7"/>
-      <c r="M256" s="7" t="s">
+      <c r="L256" s="28"/>
+      <c r="M256" s="28"/>
+      <c r="N256" s="28"/>
+      <c r="O256" s="28"/>
+      <c r="P256" s="28"/>
+      <c r="Q256" s="28"/>
+      <c r="R256" s="29"/>
+    </row>
+    <row r="257" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K257" s="35"/>
+      <c r="L257" s="7"/>
+      <c r="M257" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N256" s="7"/>
-      <c r="O256" s="7"/>
-      <c r="P256" s="7"/>
-      <c r="Q256" s="7"/>
-      <c r="R256" s="31"/>
-    </row>
-    <row r="257" spans="11:18" x14ac:dyDescent="0.2">
-      <c r="K257" s="36"/>
-      <c r="L257" s="7"/>
-      <c r="M257" s="7"/>
-      <c r="N257" s="7" t="s">
-        <v>172</v>
-      </c>
+      <c r="N257" s="7"/>
       <c r="O257" s="7"/>
       <c r="P257" s="7"/>
       <c r="Q257" s="7"/>
       <c r="R257" s="31"/>
     </row>
     <row r="258" spans="11:18" x14ac:dyDescent="0.2">
-      <c r="K258" s="36"/>
+      <c r="K258" s="35"/>
       <c r="L258" s="7"/>
       <c r="M258" s="7"/>
       <c r="N258" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O258" s="7"/>
       <c r="P258" s="7"/>
@@ -3987,11 +3997,11 @@
       <c r="R258" s="31"/>
     </row>
     <row r="259" spans="11:18" x14ac:dyDescent="0.2">
-      <c r="K259" s="36"/>
+      <c r="K259" s="35"/>
       <c r="L259" s="7"/>
       <c r="M259" s="7"/>
       <c r="N259" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O259" s="7"/>
       <c r="P259" s="7"/>
@@ -3999,21 +4009,23 @@
       <c r="R259" s="31"/>
     </row>
     <row r="260" spans="11:18" x14ac:dyDescent="0.2">
-      <c r="K260" s="36"/>
+      <c r="K260" s="35"/>
       <c r="L260" s="7"/>
-      <c r="M260" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N260" s="7"/>
+      <c r="M260" s="7"/>
+      <c r="N260" s="7" t="s">
+        <v>174</v>
+      </c>
       <c r="O260" s="7"/>
       <c r="P260" s="7"/>
       <c r="Q260" s="7"/>
       <c r="R260" s="31"/>
     </row>
     <row r="261" spans="11:18" x14ac:dyDescent="0.2">
-      <c r="K261" s="36"/>
+      <c r="K261" s="35"/>
       <c r="L261" s="7"/>
-      <c r="M261" s="7"/>
+      <c r="M261" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="N261" s="7"/>
       <c r="O261" s="7"/>
       <c r="P261" s="7"/>
@@ -4021,11 +4033,9 @@
       <c r="R261" s="31"/>
     </row>
     <row r="262" spans="11:18" x14ac:dyDescent="0.2">
-      <c r="K262" s="36"/>
+      <c r="K262" s="35"/>
       <c r="L262" s="7"/>
-      <c r="M262" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="M262" s="7"/>
       <c r="N262" s="7"/>
       <c r="O262" s="7"/>
       <c r="P262" s="7"/>
@@ -4033,10 +4043,10 @@
       <c r="R262" s="31"/>
     </row>
     <row r="263" spans="11:18" x14ac:dyDescent="0.2">
-      <c r="K263" s="36"/>
+      <c r="K263" s="35"/>
       <c r="L263" s="7"/>
       <c r="M263" s="7" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="N263" s="7"/>
       <c r="O263" s="7"/>
@@ -4045,23 +4055,23 @@
       <c r="R263" s="31"/>
     </row>
     <row r="264" spans="11:18" x14ac:dyDescent="0.2">
-      <c r="K264" s="36"/>
+      <c r="K264" s="35"/>
       <c r="L264" s="7"/>
-      <c r="M264" s="7"/>
-      <c r="N264" s="7" t="s">
-        <v>172</v>
-      </c>
+      <c r="M264" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N264" s="7"/>
       <c r="O264" s="7"/>
       <c r="P264" s="7"/>
       <c r="Q264" s="7"/>
       <c r="R264" s="31"/>
     </row>
     <row r="265" spans="11:18" x14ac:dyDescent="0.2">
-      <c r="K265" s="36"/>
+      <c r="K265" s="35"/>
       <c r="L265" s="7"/>
       <c r="M265" s="7"/>
       <c r="N265" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="O265" s="7"/>
       <c r="P265" s="7"/>
@@ -4069,11 +4079,11 @@
       <c r="R265" s="31"/>
     </row>
     <row r="266" spans="11:18" x14ac:dyDescent="0.2">
-      <c r="K266" s="36"/>
+      <c r="K266" s="35"/>
       <c r="L266" s="7"/>
       <c r="M266" s="7"/>
       <c r="N266" s="7" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="O266" s="7"/>
       <c r="P266" s="7"/>
@@ -4081,22 +4091,22 @@
       <c r="R266" s="31"/>
     </row>
     <row r="267" spans="11:18" x14ac:dyDescent="0.2">
-      <c r="K267" s="36"/>
+      <c r="K267" s="35"/>
       <c r="L267" s="7"/>
-      <c r="M267" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N267" s="7"/>
+      <c r="M267" s="7"/>
+      <c r="N267" s="7" t="s">
+        <v>161</v>
+      </c>
       <c r="O267" s="7"/>
       <c r="P267" s="7"/>
       <c r="Q267" s="7"/>
       <c r="R267" s="31"/>
     </row>
     <row r="268" spans="11:18" x14ac:dyDescent="0.2">
-      <c r="K268" s="36"/>
+      <c r="K268" s="35"/>
       <c r="L268" s="7"/>
       <c r="M268" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N268" s="7"/>
       <c r="O268" s="7"/>
@@ -4105,27 +4115,25 @@
       <c r="R268" s="31"/>
     </row>
     <row r="269" spans="11:18" x14ac:dyDescent="0.2">
-      <c r="K269" s="36" t="s">
-        <v>177</v>
-      </c>
+      <c r="K269" s="35"/>
       <c r="L269" s="7"/>
-      <c r="M269" s="7"/>
-      <c r="N269" s="7" t="s">
-        <v>178</v>
-      </c>
+      <c r="M269" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N269" s="7"/>
       <c r="O269" s="7"/>
       <c r="P269" s="7"/>
       <c r="Q269" s="7"/>
       <c r="R269" s="31"/>
     </row>
     <row r="270" spans="11:18" x14ac:dyDescent="0.2">
-      <c r="K270" s="36" t="s">
+      <c r="K270" s="35" t="s">
         <v>177</v>
       </c>
       <c r="L270" s="7"/>
       <c r="M270" s="7"/>
       <c r="N270" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O270" s="7"/>
       <c r="P270" s="7"/>
@@ -4133,13 +4141,13 @@
       <c r="R270" s="31"/>
     </row>
     <row r="271" spans="11:18" x14ac:dyDescent="0.2">
-      <c r="K271" s="36" t="s">
+      <c r="K271" s="35" t="s">
         <v>177</v>
       </c>
       <c r="L271" s="7"/>
       <c r="M271" s="7"/>
       <c r="N271" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O271" s="7"/>
       <c r="P271" s="7"/>
@@ -4147,19 +4155,93 @@
       <c r="R271" s="31"/>
     </row>
     <row r="272" spans="11:18" x14ac:dyDescent="0.2">
-      <c r="K272" s="37"/>
-      <c r="L272" s="33"/>
-      <c r="M272" s="33" t="s">
+      <c r="K272" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="L272" s="7"/>
+      <c r="M272" s="7"/>
+      <c r="N272" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="O272" s="7"/>
+      <c r="P272" s="7"/>
+      <c r="Q272" s="7"/>
+      <c r="R272" s="31"/>
+    </row>
+    <row r="273" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K273" s="35"/>
+      <c r="L273" s="7"/>
+      <c r="M273" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N272" s="33"/>
-      <c r="O272" s="33"/>
-      <c r="P272" s="33"/>
-      <c r="Q272" s="33"/>
-      <c r="R272" s="34"/>
-    </row>
-    <row r="274" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K274" s="3" t="s">
+      <c r="N273" s="7"/>
+      <c r="O273" s="7"/>
+      <c r="P273" s="7"/>
+      <c r="Q273" s="7"/>
+      <c r="R273" s="31"/>
+    </row>
+    <row r="274" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K274" s="35"/>
+      <c r="L274" s="7"/>
+      <c r="M274" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N274" s="7"/>
+      <c r="O274" s="7"/>
+      <c r="P274" s="7"/>
+      <c r="Q274" s="7"/>
+      <c r="R274" s="31"/>
+    </row>
+    <row r="275" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K275" s="35"/>
+      <c r="L275" s="7"/>
+      <c r="M275" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="N275" s="7"/>
+      <c r="O275" s="7"/>
+      <c r="P275" s="7"/>
+      <c r="Q275" s="7"/>
+      <c r="R275" s="31"/>
+    </row>
+    <row r="276" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K276" s="35"/>
+      <c r="L276" s="7"/>
+      <c r="M276" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="N276" s="7"/>
+      <c r="O276" s="7"/>
+      <c r="P276" s="7"/>
+      <c r="Q276" s="7"/>
+      <c r="R276" s="31"/>
+    </row>
+    <row r="277" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K277" s="35"/>
+      <c r="L277" s="7"/>
+      <c r="M277" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="N277" s="7"/>
+      <c r="O277" s="7"/>
+      <c r="P277" s="7"/>
+      <c r="Q277" s="7"/>
+      <c r="R277" s="31"/>
+    </row>
+    <row r="278" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K278" s="36"/>
+      <c r="L278" s="33"/>
+      <c r="M278" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="N278" s="33"/>
+      <c r="O278" s="33"/>
+      <c r="P278" s="33"/>
+      <c r="Q278" s="33"/>
+      <c r="R278" s="34"/>
+    </row>
+    <row r="287" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K287" s="3" t="s">
         <v>182</v>
       </c>
     </row>

--- a/00_기타/spring 설정.xlsx
+++ b/00_기타/spring 설정.xlsx
@@ -1244,10 +1244,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1314,16 +1314,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>289</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>94769</xdr:colOff>
-      <xdr:row>299</xdr:row>
-      <xdr:rowOff>37886</xdr:rowOff>
+      <xdr:colOff>428144</xdr:colOff>
+      <xdr:row>296</xdr:row>
+      <xdr:rowOff>171236</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1340,7 +1340,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6534150" y="52254150"/>
+          <a:off x="6867525" y="52025550"/>
           <a:ext cx="3847619" cy="1714286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1642,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A245" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K255" sqref="K255"/>
+    <sheetView tabSelected="1" topLeftCell="A257" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L283" sqref="L283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1652,62 +1652,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
     </row>
     <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -4231,7 +4231,7 @@
     <row r="278" spans="11:18" x14ac:dyDescent="0.2">
       <c r="K278" s="36"/>
       <c r="L278" s="33"/>
-      <c r="M278" s="41" t="s">
+      <c r="M278" s="40" t="s">
         <v>126</v>
       </c>
       <c r="N278" s="33"/>

--- a/00_기타/spring 설정.xlsx
+++ b/00_기타/spring 설정.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="188">
   <si>
     <t xml:space="preserve">Srping 설정 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -878,6 +878,10 @@
   </si>
   <si>
     <t>- spring-test (junit 사용할 수 있는 dependency)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1642,8 +1646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A257" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L283" sqref="L283"/>
+    <sheetView tabSelected="1" topLeftCell="A266" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F285" sqref="F285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4168,7 +4172,7 @@
       <c r="Q272" s="7"/>
       <c r="R272" s="31"/>
     </row>
-    <row r="273" spans="11:18" x14ac:dyDescent="0.2">
+    <row r="273" spans="6:18" x14ac:dyDescent="0.2">
       <c r="K273" s="35"/>
       <c r="L273" s="7"/>
       <c r="M273" s="7" t="s">
@@ -4180,7 +4184,7 @@
       <c r="Q273" s="7"/>
       <c r="R273" s="31"/>
     </row>
-    <row r="274" spans="11:18" x14ac:dyDescent="0.2">
+    <row r="274" spans="6:18" x14ac:dyDescent="0.2">
       <c r="K274" s="35"/>
       <c r="L274" s="7"/>
       <c r="M274" s="7" t="s">
@@ -4192,7 +4196,7 @@
       <c r="Q274" s="7"/>
       <c r="R274" s="31"/>
     </row>
-    <row r="275" spans="11:18" x14ac:dyDescent="0.2">
+    <row r="275" spans="6:18" x14ac:dyDescent="0.2">
       <c r="K275" s="35"/>
       <c r="L275" s="7"/>
       <c r="M275" s="7" t="s">
@@ -4204,7 +4208,7 @@
       <c r="Q275" s="7"/>
       <c r="R275" s="31"/>
     </row>
-    <row r="276" spans="11:18" x14ac:dyDescent="0.2">
+    <row r="276" spans="6:18" x14ac:dyDescent="0.2">
       <c r="K276" s="35"/>
       <c r="L276" s="7"/>
       <c r="M276" s="7" t="s">
@@ -4216,7 +4220,7 @@
       <c r="Q276" s="7"/>
       <c r="R276" s="31"/>
     </row>
-    <row r="277" spans="11:18" x14ac:dyDescent="0.2">
+    <row r="277" spans="6:18" x14ac:dyDescent="0.2">
       <c r="K277" s="35"/>
       <c r="L277" s="7"/>
       <c r="M277" s="7" t="s">
@@ -4228,7 +4232,7 @@
       <c r="Q277" s="7"/>
       <c r="R277" s="31"/>
     </row>
-    <row r="278" spans="11:18" x14ac:dyDescent="0.2">
+    <row r="278" spans="6:18" x14ac:dyDescent="0.2">
       <c r="K278" s="36"/>
       <c r="L278" s="33"/>
       <c r="M278" s="40" t="s">
@@ -4240,7 +4244,12 @@
       <c r="Q278" s="33"/>
       <c r="R278" s="34"/>
     </row>
-    <row r="287" spans="11:18" x14ac:dyDescent="0.2">
+    <row r="285" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F285" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="287" spans="6:18" x14ac:dyDescent="0.2">
       <c r="K287" s="3" t="s">
         <v>182</v>
       </c>
